--- a/Pipeline/SSP2-4.5/banana_yield_predictions_2025-2034.xlsx
+++ b/Pipeline/SSP2-4.5/banana_yield_predictions_2025-2034.xlsx
@@ -804,7 +804,7 @@
         <v>2.060886025200454</v>
       </c>
       <c r="T2">
-        <v>8.181552886962891</v>
+        <v>8.121199607849121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -866,7 +866,7 @@
         <v>2.060886025200454</v>
       </c>
       <c r="T3">
-        <v>6.172018527984619</v>
+        <v>6.099031925201416</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -928,7 +928,7 @@
         <v>2.060886025200454</v>
       </c>
       <c r="T4">
-        <v>7.867448329925537</v>
+        <v>7.882879257202148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -990,7 +990,7 @@
         <v>2.060886025200454</v>
       </c>
       <c r="T5">
-        <v>6.232871532440186</v>
+        <v>6.125147819519043</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1052,7 +1052,7 @@
         <v>2.060886025200454</v>
       </c>
       <c r="T6">
-        <v>7.953542709350586</v>
+        <v>8.844552993774414</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1114,7 +1114,7 @@
         <v>2.060886025200454</v>
       </c>
       <c r="T7">
-        <v>6.190140247344971</v>
+        <v>6.108199119567871</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1176,7 +1176,7 @@
         <v>2.060886025200454</v>
       </c>
       <c r="T8">
-        <v>7.302073001861572</v>
+        <v>7.211311340332031</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1238,7 +1238,7 @@
         <v>2.060886025200454</v>
       </c>
       <c r="T9">
-        <v>8.101612091064453</v>
+        <v>8.068148612976074</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1300,7 +1300,7 @@
         <v>2.060886025200454</v>
       </c>
       <c r="T10">
-        <v>7.894402027130127</v>
+        <v>7.901600360870361</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1362,7 +1362,7 @@
         <v>2.060886025200454</v>
       </c>
       <c r="T11">
-        <v>6.399510383605957</v>
+        <v>6.564249038696289</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -2664,7 +2664,7 @@
         <v>1.98171145124716</v>
       </c>
       <c r="T32">
-        <v>6.169960975646973</v>
+        <v>7.250157356262207</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2726,7 +2726,7 @@
         <v>1.98171145124716</v>
       </c>
       <c r="T33">
-        <v>5.372427463531494</v>
+        <v>6.413556098937988</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2788,7 +2788,7 @@
         <v>1.98171145124716</v>
       </c>
       <c r="T34">
-        <v>6.121206283569336</v>
+        <v>7.114918231964111</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2850,7 +2850,7 @@
         <v>1.98171145124716</v>
       </c>
       <c r="T35">
-        <v>6.679810047149658</v>
+        <v>7.216765403747559</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2912,7 +2912,7 @@
         <v>1.98171145124716</v>
       </c>
       <c r="T36">
-        <v>5.99547290802002</v>
+        <v>7.150200843811035</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2974,7 +2974,7 @@
         <v>1.98171145124716</v>
       </c>
       <c r="T37">
-        <v>6.55033016204834</v>
+        <v>7.224974155426025</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3036,7 +3036,7 @@
         <v>1.98171145124716</v>
       </c>
       <c r="T38">
-        <v>6.866459369659424</v>
+        <v>7.48902416229248</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3098,7 +3098,7 @@
         <v>1.98171145124716</v>
       </c>
       <c r="T39">
-        <v>6.990535736083984</v>
+        <v>7.539603233337402</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3160,7 +3160,7 @@
         <v>1.98171145124716</v>
       </c>
       <c r="T40">
-        <v>6.652274131774902</v>
+        <v>7.412794589996338</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3222,7 +3222,7 @@
         <v>1.98171145124716</v>
       </c>
       <c r="T41">
-        <v>7.187371253967285</v>
+        <v>7.871316909790039</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3284,7 +3284,7 @@
         <v>2.120564017660039</v>
       </c>
       <c r="T42">
-        <v>9.706522941589355</v>
+        <v>8.977259635925293</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3346,7 +3346,7 @@
         <v>2.120564017660039</v>
       </c>
       <c r="T43">
-        <v>12.4567928314209</v>
+        <v>12.21210956573486</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3408,7 +3408,7 @@
         <v>2.120564017660039</v>
       </c>
       <c r="T44">
-        <v>12.05232810974121</v>
+        <v>11.52591133117676</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3470,7 +3470,7 @@
         <v>2.120564017660039</v>
       </c>
       <c r="T45">
-        <v>11.24074363708496</v>
+        <v>11.0556812286377</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3532,7 +3532,7 @@
         <v>2.120564017660039</v>
       </c>
       <c r="T46">
-        <v>10.26393032073975</v>
+        <v>10.10093593597412</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3594,7 +3594,7 @@
         <v>2.120564017660039</v>
       </c>
       <c r="T47">
-        <v>11.57845401763916</v>
+        <v>11.41257858276367</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -3656,7 +3656,7 @@
         <v>2.120564017660039</v>
       </c>
       <c r="T48">
-        <v>11.18288421630859</v>
+        <v>11.00331401824951</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -3718,7 +3718,7 @@
         <v>2.120564017660039</v>
       </c>
       <c r="T49">
-        <v>10.99264812469482</v>
+        <v>10.80496978759766</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -3780,7 +3780,7 @@
         <v>2.120564017660039</v>
       </c>
       <c r="T50">
-        <v>11.21324062347412</v>
+        <v>11.36588382720947</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -3842,7 +3842,7 @@
         <v>2.120564017660039</v>
       </c>
       <c r="T51">
-        <v>11.40297794342041</v>
+        <v>11.26200294494629</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -3904,7 +3904,7 @@
         <v>2.031628048780484</v>
       </c>
       <c r="T52">
-        <v>11.9385404586792</v>
+        <v>9.222385640000001</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -4028,7 +4028,7 @@
         <v>2.031628048780484</v>
       </c>
       <c r="T54">
-        <v>12.11451148986816</v>
+        <v>9.222385640000001</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -4152,7 +4152,7 @@
         <v>2.031628048780484</v>
       </c>
       <c r="T56">
-        <v>11.9312047958374</v>
+        <v>9.222385640000001</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -4524,7 +4524,7 @@
         <v>1.977313450292393</v>
       </c>
       <c r="T62">
-        <v>6.495153903961182</v>
+        <v>6.703486919403076</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -4586,7 +4586,7 @@
         <v>1.977313450292393</v>
       </c>
       <c r="T63">
-        <v>6.465618133544922</v>
+        <v>6.673646926879883</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -4648,7 +4648,7 @@
         <v>1.977313450292393</v>
       </c>
       <c r="T64">
-        <v>6.630868434906006</v>
+        <v>7.121418476104736</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -4710,7 +4710,7 @@
         <v>1.977313450292393</v>
       </c>
       <c r="T65">
-        <v>7.893776893615723</v>
+        <v>7.822474002838135</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -4834,7 +4834,7 @@
         <v>1.977313450292393</v>
       </c>
       <c r="T67">
-        <v>6.481972694396973</v>
+        <v>6.6698317527771</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -4896,7 +4896,7 @@
         <v>1.977313450292393</v>
       </c>
       <c r="T68">
-        <v>9.080344200134277</v>
+        <v>8.993378639221191</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -4958,7 +4958,7 @@
         <v>1.977313450292393</v>
       </c>
       <c r="T69">
-        <v>7.895527839660645</v>
+        <v>7.819758415222168</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -5020,7 +5020,7 @@
         <v>1.977313450292393</v>
       </c>
       <c r="T70">
-        <v>6.650063514709473</v>
+        <v>7.167850017547607</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -5082,7 +5082,7 @@
         <v>1.977313450292393</v>
       </c>
       <c r="T71">
-        <v>6.547369480133057</v>
+        <v>6.985535144805908</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -5144,7 +5144,7 @@
         <v>2.7300524168236</v>
       </c>
       <c r="T72">
-        <v>5.388442993164062</v>
+        <v>5.185690402984619</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -5206,7 +5206,7 @@
         <v>2.7300524168236</v>
       </c>
       <c r="T73">
-        <v>4.561896324157715</v>
+        <v>4.361927032470703</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -5268,7 +5268,7 @@
         <v>2.7300524168236</v>
       </c>
       <c r="T74">
-        <v>4.881533622741699</v>
+        <v>4.772669792175293</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -5330,7 +5330,7 @@
         <v>2.7300524168236</v>
       </c>
       <c r="T75">
-        <v>3.374581813812256</v>
+        <v>2.829448223114014</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -5392,7 +5392,7 @@
         <v>2.7300524168236</v>
       </c>
       <c r="T76">
-        <v>5.516176700592041</v>
+        <v>5.411067962646484</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5454,7 +5454,7 @@
         <v>2.7300524168236</v>
       </c>
       <c r="T77">
-        <v>3.410954713821411</v>
+        <v>3.247400045394897</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -5516,7 +5516,7 @@
         <v>2.7300524168236</v>
       </c>
       <c r="T78">
-        <v>3.565475702285767</v>
+        <v>3.384531736373901</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -5578,7 +5578,7 @@
         <v>2.7300524168236</v>
       </c>
       <c r="T79">
-        <v>5.059602737426758</v>
+        <v>4.822107315063477</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -5640,7 +5640,7 @@
         <v>2.7300524168236</v>
       </c>
       <c r="T80">
-        <v>5.316854476928711</v>
+        <v>5.015919208526611</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -5702,7 +5702,7 @@
         <v>2.7300524168236</v>
       </c>
       <c r="T81">
-        <v>5.37463903427124</v>
+        <v>5.144071102142334</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -5950,7 +5950,7 @@
         <v>1.764950819672125</v>
       </c>
       <c r="T85">
-        <v>3.476857908</v>
+        <v>2.72551769</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -6074,7 +6074,7 @@
         <v>1.764950819672125</v>
       </c>
       <c r="T87">
-        <v>3.476857908</v>
+        <v>2.72551769</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -6260,7 +6260,7 @@
         <v>1.764950819672125</v>
       </c>
       <c r="T90">
-        <v>3.092618703842163</v>
+        <v>2.72551769</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -6322,7 +6322,7 @@
         <v>1.764950819672125</v>
       </c>
       <c r="T91">
-        <v>3.476857908</v>
+        <v>2.72551769</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -6446,7 +6446,7 @@
         <v>2.678743145743141</v>
       </c>
       <c r="T93">
-        <v>6.562248804</v>
+        <v>5.957404136657715</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -6694,7 +6694,7 @@
         <v>2.678743145743141</v>
       </c>
       <c r="T97">
-        <v>6.263903141021729</v>
+        <v>5.722899436950684</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -7004,7 +7004,7 @@
         <v>3.575557539682535</v>
       </c>
       <c r="T102">
-        <v>5.224812030792236</v>
+        <v>5.676558017730713</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -7066,7 +7066,7 @@
         <v>3.575557539682535</v>
       </c>
       <c r="T103">
-        <v>5.853460788726807</v>
+        <v>5.709554672241211</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -7128,7 +7128,7 @@
         <v>3.575557539682535</v>
       </c>
       <c r="T104">
-        <v>5.541318893432617</v>
+        <v>6.673794269561768</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -7190,7 +7190,7 @@
         <v>3.575557539682535</v>
       </c>
       <c r="T105">
-        <v>4.614598274230957</v>
+        <v>4.775115489959717</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -7314,7 +7314,7 @@
         <v>3.575557539682535</v>
       </c>
       <c r="T107">
-        <v>4.804207324981689</v>
+        <v>4.780401229858398</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -7376,7 +7376,7 @@
         <v>3.575557539682535</v>
       </c>
       <c r="T108">
-        <v>3.00363826751709</v>
+        <v>2.936925888061523</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -7438,7 +7438,7 @@
         <v>3.575557539682535</v>
       </c>
       <c r="T109">
-        <v>4.584774971008301</v>
+        <v>4.47298526763916</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -7562,7 +7562,7 @@
         <v>3.575557539682535</v>
       </c>
       <c r="T111">
-        <v>4.736978530883789</v>
+        <v>5.055160045623779</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -7810,7 +7810,7 @@
         <v>2.245849079025544</v>
       </c>
       <c r="T115">
-        <v>4.541364669799805</v>
+        <v>4.488957327</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -8244,7 +8244,7 @@
         <v>2.502232240437153</v>
       </c>
       <c r="T122">
-        <v>5.410584449768066</v>
+        <v>4.897341251373291</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -8306,7 +8306,7 @@
         <v>2.502232240437153</v>
       </c>
       <c r="T123">
-        <v>5.240510940551758</v>
+        <v>4.923336982727051</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -8368,7 +8368,7 @@
         <v>2.502232240437153</v>
       </c>
       <c r="T124">
-        <v>5.378735542297363</v>
+        <v>4.943389415740967</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -8430,7 +8430,7 @@
         <v>2.502232240437153</v>
       </c>
       <c r="T125">
-        <v>5.468714237213135</v>
+        <v>4.970808506011963</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -8492,7 +8492,7 @@
         <v>2.502232240437153</v>
       </c>
       <c r="T126">
-        <v>6.477746963500977</v>
+        <v>6.441544532775879</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -8554,7 +8554,7 @@
         <v>2.502232240437153</v>
       </c>
       <c r="T127">
-        <v>5.342955589294434</v>
+        <v>4.927597999572754</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -8616,7 +8616,7 @@
         <v>2.502232240437153</v>
       </c>
       <c r="T128">
-        <v>5.416595935821533</v>
+        <v>4.935588836669922</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -8678,7 +8678,7 @@
         <v>2.502232240437153</v>
       </c>
       <c r="T129">
-        <v>5.286584854125977</v>
+        <v>4.929258346557617</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -8740,7 +8740,7 @@
         <v>2.502232240437153</v>
       </c>
       <c r="T130">
-        <v>5.167747974395752</v>
+        <v>5.011120319366455</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -8802,7 +8802,7 @@
         <v>2.502232240437153</v>
       </c>
       <c r="T131">
-        <v>5.114142417907715</v>
+        <v>4.991712093353271</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -8864,7 +8864,7 @@
         <v>2.112102339181283</v>
       </c>
       <c r="T132">
-        <v>11.33655548095703</v>
+        <v>11.36450235</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -8926,7 +8926,7 @@
         <v>2.112102339181283</v>
       </c>
       <c r="T133">
-        <v>10.90769481658936</v>
+        <v>11.13498687744141</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -9050,7 +9050,7 @@
         <v>2.112102339181283</v>
       </c>
       <c r="T135">
-        <v>6.628780841827393</v>
+        <v>6.8177809715271</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -9112,7 +9112,7 @@
         <v>2.112102339181283</v>
       </c>
       <c r="T136">
-        <v>11.3577766418457</v>
+        <v>11.32003211975098</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -9174,7 +9174,7 @@
         <v>2.112102339181283</v>
       </c>
       <c r="T137">
-        <v>7.347575187683105</v>
+        <v>7.470383167266846</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -9236,7 +9236,7 @@
         <v>2.112102339181283</v>
       </c>
       <c r="T138">
-        <v>7.075098991394043</v>
+        <v>7.030659198760986</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -9298,7 +9298,7 @@
         <v>2.112102339181283</v>
       </c>
       <c r="T139">
-        <v>7.198043823242188</v>
+        <v>7.082607269287109</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -9422,7 +9422,7 @@
         <v>2.112102339181283</v>
       </c>
       <c r="T141">
-        <v>7.203275680541992</v>
+        <v>7.159759044647217</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -9670,7 +9670,7 @@
         <v>1.55026643518518</v>
       </c>
       <c r="T145">
-        <v>14.60326524</v>
+        <v>14.41275024414062</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -9794,7 +9794,7 @@
         <v>1.55026643518518</v>
       </c>
       <c r="T147">
-        <v>14.60326524</v>
+        <v>14.29695796966553</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -9980,7 +9980,7 @@
         <v>1.55026643518518</v>
       </c>
       <c r="T150">
-        <v>14.60326524</v>
+        <v>14.10618209838867</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -10104,7 +10104,7 @@
         <v>1.082484126984123</v>
       </c>
       <c r="T152">
-        <v>56.34654418</v>
+        <v>57.25896072387695</v>
       </c>
     </row>
     <row r="153" spans="1:20">
@@ -10228,7 +10228,7 @@
         <v>1.082484126984123</v>
       </c>
       <c r="T154">
-        <v>56.34654418</v>
+        <v>57.34871673583984</v>
       </c>
     </row>
     <row r="155" spans="1:20">
@@ -10290,7 +10290,7 @@
         <v>1.082484126984123</v>
       </c>
       <c r="T155">
-        <v>61.46443557739258</v>
+        <v>58.04207611083984</v>
       </c>
     </row>
     <row r="156" spans="1:20">
@@ -10352,7 +10352,7 @@
         <v>1.082484126984123</v>
       </c>
       <c r="T156">
-        <v>56.34654418</v>
+        <v>57.48577499389648</v>
       </c>
     </row>
     <row r="157" spans="1:20">
@@ -10414,7 +10414,7 @@
         <v>1.082484126984123</v>
       </c>
       <c r="T157">
-        <v>61.52489852905273</v>
+        <v>58.27958679199219</v>
       </c>
     </row>
     <row r="158" spans="1:20">
@@ -10476,7 +10476,7 @@
         <v>1.082484126984123</v>
       </c>
       <c r="T158">
-        <v>56.56173324584961</v>
+        <v>56.34654418</v>
       </c>
     </row>
     <row r="159" spans="1:20">
@@ -10538,7 +10538,7 @@
         <v>1.082484126984123</v>
       </c>
       <c r="T159">
-        <v>61.94201278686523</v>
+        <v>57.94772338867188</v>
       </c>
     </row>
     <row r="160" spans="1:20">
@@ -10600,7 +10600,7 @@
         <v>1.082484126984123</v>
       </c>
       <c r="T160">
-        <v>62.13350296020508</v>
+        <v>61.1887321472168</v>
       </c>
     </row>
     <row r="161" spans="1:20">
@@ -10724,7 +10724,7 @@
         <v>2.064873815676135</v>
       </c>
       <c r="T162">
-        <v>12.84308433532715</v>
+        <v>12.72631645202637</v>
       </c>
     </row>
     <row r="163" spans="1:20">
@@ -10786,7 +10786,7 @@
         <v>2.064873815676135</v>
       </c>
       <c r="T163">
-        <v>13.99191379547119</v>
+        <v>13.54537200927734</v>
       </c>
     </row>
     <row r="164" spans="1:20">
@@ -10848,7 +10848,7 @@
         <v>2.064873815676135</v>
       </c>
       <c r="T164">
-        <v>12.84069633483887</v>
+        <v>12.38532543182373</v>
       </c>
     </row>
     <row r="165" spans="1:20">
@@ -10910,7 +10910,7 @@
         <v>2.064873815676135</v>
       </c>
       <c r="T165">
-        <v>15.79725646972656</v>
+        <v>15.19237899780273</v>
       </c>
     </row>
     <row r="166" spans="1:20">
@@ -10972,7 +10972,7 @@
         <v>2.064873815676135</v>
       </c>
       <c r="T166">
-        <v>11.5062198638916</v>
+        <v>10.52030563354492</v>
       </c>
     </row>
     <row r="167" spans="1:20">
@@ -11034,7 +11034,7 @@
         <v>2.064873815676135</v>
       </c>
       <c r="T167">
-        <v>13.88235282897949</v>
+        <v>13.40728092193604</v>
       </c>
     </row>
     <row r="168" spans="1:20">
@@ -11096,7 +11096,7 @@
         <v>2.064873815676135</v>
       </c>
       <c r="T168">
-        <v>13.94841766357422</v>
+        <v>13.56486988067627</v>
       </c>
     </row>
     <row r="169" spans="1:20">
@@ -11158,7 +11158,7 @@
         <v>2.064873815676135</v>
       </c>
       <c r="T169">
-        <v>13.99384498596191</v>
+        <v>13.59760189056396</v>
       </c>
     </row>
     <row r="170" spans="1:20">
@@ -11220,7 +11220,7 @@
         <v>2.064873815676135</v>
       </c>
       <c r="T170">
-        <v>12.48952007293701</v>
+        <v>12.48472499847412</v>
       </c>
     </row>
     <row r="171" spans="1:20">
@@ -11282,7 +11282,7 @@
         <v>2.064873815676135</v>
       </c>
       <c r="T171">
-        <v>13.97946357727051</v>
+        <v>13.55556869506836</v>
       </c>
     </row>
     <row r="172" spans="1:20">
@@ -11344,7 +11344,7 @@
         <v>2.425705862977598</v>
       </c>
       <c r="T172">
-        <v>9.722668647766113</v>
+        <v>9.457563400268555</v>
       </c>
     </row>
     <row r="173" spans="1:20">
@@ -11406,7 +11406,7 @@
         <v>2.425705862977598</v>
       </c>
       <c r="T173">
-        <v>11.45817947387695</v>
+        <v>12.65656757354736</v>
       </c>
     </row>
     <row r="174" spans="1:20">
@@ -11468,7 +11468,7 @@
         <v>2.425705862977598</v>
       </c>
       <c r="T174">
-        <v>9.748650550842285</v>
+        <v>9.732821464538574</v>
       </c>
     </row>
     <row r="175" spans="1:20">
@@ -11530,7 +11530,7 @@
         <v>2.425705862977598</v>
       </c>
       <c r="T175">
-        <v>13.24219608306885</v>
+        <v>14.43144702911377</v>
       </c>
     </row>
     <row r="176" spans="1:20">
@@ -11592,7 +11592,7 @@
         <v>2.425705862977598</v>
       </c>
       <c r="T176">
-        <v>10.7119607925415</v>
+        <v>9.582363128662109</v>
       </c>
     </row>
     <row r="177" spans="1:20">
@@ -11654,7 +11654,7 @@
         <v>2.425705862977598</v>
       </c>
       <c r="T177">
-        <v>11.41562080383301</v>
+        <v>12.57551956176758</v>
       </c>
     </row>
     <row r="178" spans="1:20">
@@ -11716,7 +11716,7 @@
         <v>2.425705862977598</v>
       </c>
       <c r="T178">
-        <v>12.91526508331299</v>
+        <v>14.26277637481689</v>
       </c>
     </row>
     <row r="179" spans="1:20">
@@ -11778,7 +11778,7 @@
         <v>2.425705862977598</v>
       </c>
       <c r="T179">
-        <v>12.4807186126709</v>
+        <v>13.55968284606934</v>
       </c>
     </row>
     <row r="180" spans="1:20">
@@ -11840,7 +11840,7 @@
         <v>2.425705862977598</v>
       </c>
       <c r="T180">
-        <v>11.96549701690674</v>
+        <v>12.10520076751709</v>
       </c>
     </row>
     <row r="181" spans="1:20">
@@ -11902,7 +11902,7 @@
         <v>2.425705862977598</v>
       </c>
       <c r="T181">
-        <v>11.40112972259521</v>
+        <v>11.47931861877441</v>
       </c>
     </row>
     <row r="182" spans="1:20">
@@ -12150,7 +12150,7 @@
         <v>2.281992366412209</v>
       </c>
       <c r="T185">
-        <v>2.181358337402344</v>
+        <v>2.073946237564087</v>
       </c>
     </row>
     <row r="186" spans="1:20">
@@ -12274,7 +12274,7 @@
         <v>2.281992366412209</v>
       </c>
       <c r="T187">
-        <v>2.216358661651611</v>
+        <v>1.979370474815369</v>
       </c>
     </row>
     <row r="188" spans="1:20">
@@ -13018,7 +13018,7 @@
         <v>2.246245473908408</v>
       </c>
       <c r="T199">
-        <v>3.732216119766235</v>
+        <v>3.765493154525757</v>
       </c>
     </row>
     <row r="200" spans="1:20">
@@ -13824,7 +13824,7 @@
         <v>1.719897660818708</v>
       </c>
       <c r="T212">
-        <v>9.232876777648926</v>
+        <v>8.051996231079102</v>
       </c>
     </row>
     <row r="213" spans="1:20">
@@ -13886,7 +13886,7 @@
         <v>1.719897660818708</v>
       </c>
       <c r="T213">
-        <v>7.275590419769287</v>
+        <v>6.60774040222168</v>
       </c>
     </row>
     <row r="214" spans="1:20">
@@ -13948,7 +13948,7 @@
         <v>1.719897660818708</v>
       </c>
       <c r="T214">
-        <v>8.75173282623291</v>
+        <v>10.93831443786621</v>
       </c>
     </row>
     <row r="215" spans="1:20">
@@ -14010,7 +14010,7 @@
         <v>1.719897660818708</v>
       </c>
       <c r="T215">
-        <v>10.41487121582031</v>
+        <v>10.51762008666992</v>
       </c>
     </row>
     <row r="216" spans="1:20">
@@ -14072,7 +14072,7 @@
         <v>1.719897660818708</v>
       </c>
       <c r="T216">
-        <v>9.147880554199219</v>
+        <v>7.975742816925049</v>
       </c>
     </row>
     <row r="217" spans="1:20">
@@ -14134,7 +14134,7 @@
         <v>1.719897660818708</v>
       </c>
       <c r="T217">
-        <v>7.755149841308594</v>
+        <v>7.4934983253479</v>
       </c>
     </row>
     <row r="218" spans="1:20">
@@ -14196,7 +14196,7 @@
         <v>1.719897660818708</v>
       </c>
       <c r="T218">
-        <v>8.097715377807617</v>
+        <v>7.386726856231689</v>
       </c>
     </row>
     <row r="219" spans="1:20">
@@ -14258,7 +14258,7 @@
         <v>1.719897660818708</v>
       </c>
       <c r="T219">
-        <v>8.866337776184082</v>
+        <v>8.303512573242188</v>
       </c>
     </row>
     <row r="220" spans="1:20">
@@ -14320,7 +14320,7 @@
         <v>1.719897660818708</v>
       </c>
       <c r="T220">
-        <v>7.826887130737305</v>
+        <v>7.558917045593262</v>
       </c>
     </row>
     <row r="221" spans="1:20">
@@ -14382,7 +14382,7 @@
         <v>1.719897660818708</v>
       </c>
       <c r="T221">
-        <v>8.124597549438477</v>
+        <v>7.475186347961426</v>
       </c>
     </row>
     <row r="222" spans="1:20">
@@ -14506,7 +14506,7 @@
         <v>2.489177419354833</v>
       </c>
       <c r="T223">
-        <v>2.60103702545166</v>
+        <v>2.998486042022705</v>
       </c>
     </row>
     <row r="224" spans="1:20">
@@ -14630,7 +14630,7 @@
         <v>2.489177419354833</v>
       </c>
       <c r="T225">
-        <v>2.575040578842163</v>
+        <v>2.943261384963989</v>
       </c>
     </row>
     <row r="226" spans="1:20">
@@ -14816,7 +14816,7 @@
         <v>2.489177419354833</v>
       </c>
       <c r="T228">
-        <v>3.148854970932007</v>
+        <v>3.176246881484985</v>
       </c>
     </row>
     <row r="229" spans="1:20">
@@ -14878,7 +14878,7 @@
         <v>2.489177419354833</v>
       </c>
       <c r="T229">
-        <v>3.045486688613892</v>
+        <v>3.064507246017456</v>
       </c>
     </row>
     <row r="230" spans="1:20">
@@ -14940,7 +14940,7 @@
         <v>2.489177419354833</v>
       </c>
       <c r="T230">
-        <v>2.995006322860718</v>
+        <v>2.988361597061157</v>
       </c>
     </row>
     <row r="231" spans="1:20">
@@ -15064,7 +15064,7 @@
         <v>2.274713492063487</v>
       </c>
       <c r="T232">
-        <v>6.055825710296631</v>
+        <v>5.865152835845947</v>
       </c>
     </row>
     <row r="233" spans="1:20">
@@ -15126,7 +15126,7 @@
         <v>2.274713492063487</v>
       </c>
       <c r="T233">
-        <v>5.665521144866943</v>
+        <v>5.459133625030518</v>
       </c>
     </row>
     <row r="234" spans="1:20">
@@ -15188,7 +15188,7 @@
         <v>2.274713492063487</v>
       </c>
       <c r="T234">
-        <v>5.966886043548584</v>
+        <v>5.845300674438477</v>
       </c>
     </row>
     <row r="235" spans="1:20">
@@ -15250,7 +15250,7 @@
         <v>2.274713492063487</v>
       </c>
       <c r="T235">
-        <v>5.428457260131836</v>
+        <v>5.070444107055664</v>
       </c>
     </row>
     <row r="236" spans="1:20">
@@ -15312,7 +15312,7 @@
         <v>2.274713492063487</v>
       </c>
       <c r="T236">
-        <v>5.507755279541016</v>
+        <v>5.405579566955566</v>
       </c>
     </row>
     <row r="237" spans="1:20">
@@ -15374,7 +15374,7 @@
         <v>2.274713492063487</v>
       </c>
       <c r="T237">
-        <v>5.259393215179443</v>
+        <v>5.015077114105225</v>
       </c>
     </row>
     <row r="238" spans="1:20">
@@ -15436,7 +15436,7 @@
         <v>2.274713492063487</v>
       </c>
       <c r="T238">
-        <v>5.876796722412109</v>
+        <v>5.683539867401123</v>
       </c>
     </row>
     <row r="239" spans="1:20">
@@ -15498,7 +15498,7 @@
         <v>2.274713492063487</v>
       </c>
       <c r="T239">
-        <v>5.6169753074646</v>
+        <v>5.434412956237793</v>
       </c>
     </row>
     <row r="240" spans="1:20">
@@ -15560,7 +15560,7 @@
         <v>2.274713492063487</v>
       </c>
       <c r="T240">
-        <v>5.950961589813232</v>
+        <v>5.787264823913574</v>
       </c>
     </row>
     <row r="241" spans="1:20">
@@ -15622,7 +15622,7 @@
         <v>2.274713492063487</v>
       </c>
       <c r="T241">
-        <v>5.16314697265625</v>
+        <v>4.998010635375977</v>
       </c>
     </row>
     <row r="242" spans="1:20">
@@ -15870,7 +15870,7 @@
         <v>1.823123974645782</v>
       </c>
       <c r="T245">
-        <v>9.33635425567627</v>
+        <v>8.887666702270508</v>
       </c>
     </row>
     <row r="246" spans="1:20">
@@ -15994,7 +15994,7 @@
         <v>1.823123974645782</v>
       </c>
       <c r="T247">
-        <v>9.296140670776367</v>
+        <v>8.95384693145752</v>
       </c>
     </row>
     <row r="248" spans="1:20">
@@ -16056,7 +16056,7 @@
         <v>1.823123974645782</v>
       </c>
       <c r="T248">
-        <v>9.374021530151367</v>
+        <v>9.192928314208984</v>
       </c>
     </row>
     <row r="249" spans="1:20">
@@ -16118,7 +16118,7 @@
         <v>1.823123974645782</v>
       </c>
       <c r="T249">
-        <v>9.236367225646973</v>
+        <v>8.960997581481934</v>
       </c>
     </row>
     <row r="250" spans="1:20">
@@ -16180,7 +16180,7 @@
         <v>1.823123974645782</v>
       </c>
       <c r="T250">
-        <v>8.762683868408203</v>
+        <v>8.439848899841309</v>
       </c>
     </row>
     <row r="251" spans="1:20">
@@ -16242,7 +16242,7 @@
         <v>1.823123974645782</v>
       </c>
       <c r="T251">
-        <v>9.638205822</v>
+        <v>9.228103637695312</v>
       </c>
     </row>
     <row r="252" spans="1:20">
@@ -16490,7 +16490,7 @@
         <v>1.724002334267036</v>
       </c>
       <c r="T255">
-        <v>37.62892150878906</v>
+        <v>38.78523102</v>
       </c>
     </row>
     <row r="256" spans="1:20">
@@ -16738,7 +16738,7 @@
         <v>1.724002334267036</v>
       </c>
       <c r="T259">
-        <v>37.66156768798828</v>
+        <v>38.78523102</v>
       </c>
     </row>
     <row r="260" spans="1:20">
@@ -16800,7 +16800,7 @@
         <v>1.724002334267036</v>
       </c>
       <c r="T260">
-        <v>37.95038986206055</v>
+        <v>38.78523102</v>
       </c>
     </row>
     <row r="261" spans="1:20">
@@ -17110,7 +17110,7 @@
         <v>1.739321596244127</v>
       </c>
       <c r="T265">
-        <v>17.25046471</v>
+        <v>16.66489028930664</v>
       </c>
     </row>
     <row r="266" spans="1:20">
@@ -17544,7 +17544,7 @@
         <v>1.333098611111106</v>
       </c>
       <c r="T272">
-        <v>35.45674896240234</v>
+        <v>35.623046875</v>
       </c>
     </row>
     <row r="273" spans="1:20">
@@ -17606,7 +17606,7 @@
         <v>1.333098611111106</v>
       </c>
       <c r="T273">
-        <v>40.78408813476562</v>
+        <v>46.38117980957031</v>
       </c>
     </row>
     <row r="274" spans="1:20">
@@ -17668,7 +17668,7 @@
         <v>1.333098611111106</v>
       </c>
       <c r="T274">
-        <v>34.8862419128418</v>
+        <v>34.59747314453125</v>
       </c>
     </row>
     <row r="275" spans="1:20">
@@ -17730,7 +17730,7 @@
         <v>1.333098611111106</v>
       </c>
       <c r="T275">
-        <v>33.96908569335938</v>
+        <v>36.57130432128906</v>
       </c>
     </row>
     <row r="276" spans="1:20">
@@ -17792,7 +17792,7 @@
         <v>1.333098611111106</v>
       </c>
       <c r="T276">
-        <v>33.99512481689453</v>
+        <v>35.28890228271484</v>
       </c>
     </row>
     <row r="277" spans="1:20">
@@ -17854,7 +17854,7 @@
         <v>1.333098611111106</v>
       </c>
       <c r="T277">
-        <v>38.2741813659668</v>
+        <v>39.77762222290039</v>
       </c>
     </row>
     <row r="278" spans="1:20">
@@ -17916,7 +17916,7 @@
         <v>1.333098611111106</v>
       </c>
       <c r="T278">
-        <v>38.34191513061523</v>
+        <v>42.85173797607422</v>
       </c>
     </row>
     <row r="279" spans="1:20">
@@ -18040,7 +18040,7 @@
         <v>1.333098611111106</v>
       </c>
       <c r="T280">
-        <v>34.06096649169922</v>
+        <v>34.07104110717773</v>
       </c>
     </row>
     <row r="281" spans="1:20">
@@ -18102,7 +18102,7 @@
         <v>1.333098611111106</v>
       </c>
       <c r="T281">
-        <v>38.94790649414062</v>
+        <v>38.94092559814453</v>
       </c>
     </row>
     <row r="282" spans="1:20">
@@ -18164,7 +18164,7 @@
         <v>1.209209688346878</v>
       </c>
       <c r="T282">
-        <v>43.55108261108398</v>
+        <v>44.28261504</v>
       </c>
     </row>
     <row r="283" spans="1:20">
@@ -18288,7 +18288,7 @@
         <v>1.209209688346878</v>
       </c>
       <c r="T284">
-        <v>42.61668241</v>
+        <v>44.28261504</v>
       </c>
     </row>
     <row r="285" spans="1:20">
@@ -18350,7 +18350,7 @@
         <v>1.209209688346878</v>
       </c>
       <c r="T285">
-        <v>42.61668241</v>
+        <v>43.21831512451172</v>
       </c>
     </row>
     <row r="286" spans="1:20">
@@ -18474,7 +18474,7 @@
         <v>1.209209688346878</v>
       </c>
       <c r="T287">
-        <v>42.61668241</v>
+        <v>43.25813293457031</v>
       </c>
     </row>
     <row r="288" spans="1:20">
@@ -18536,7 +18536,7 @@
         <v>1.209209688346878</v>
       </c>
       <c r="T288">
-        <v>43.23588180541992</v>
+        <v>44.28261504</v>
       </c>
     </row>
     <row r="289" spans="1:20">
@@ -18660,7 +18660,7 @@
         <v>1.209209688346878</v>
       </c>
       <c r="T290">
-        <v>42.94051361083984</v>
+        <v>44.28261504</v>
       </c>
     </row>
     <row r="291" spans="1:20">
@@ -18722,7 +18722,7 @@
         <v>1.209209688346878</v>
       </c>
       <c r="T291">
-        <v>42.61668241</v>
+        <v>44.28261504</v>
       </c>
     </row>
     <row r="292" spans="1:20">
@@ -18970,7 +18970,7 @@
         <v>1.538442054958178</v>
       </c>
       <c r="T295">
-        <v>39.69536590576172</v>
+        <v>41.39923097</v>
       </c>
     </row>
     <row r="296" spans="1:20">
@@ -19218,7 +19218,7 @@
         <v>1.538442054958178</v>
       </c>
       <c r="T299">
-        <v>37.25205501</v>
+        <v>41.39923097</v>
       </c>
     </row>
     <row r="300" spans="1:20">
@@ -20644,7 +20644,7 @@
         <v>1.97037560386473</v>
       </c>
       <c r="T322">
-        <v>9.808032989501953</v>
+        <v>11.56003856658936</v>
       </c>
     </row>
     <row r="323" spans="1:20">
@@ -20706,7 +20706,7 @@
         <v>1.97037560386473</v>
       </c>
       <c r="T323">
-        <v>10.37817001342773</v>
+        <v>12.31192874908447</v>
       </c>
     </row>
     <row r="324" spans="1:20">
@@ -20768,7 +20768,7 @@
         <v>1.97037560386473</v>
       </c>
       <c r="T324">
-        <v>9.936827659606934</v>
+        <v>11.67064094543457</v>
       </c>
     </row>
     <row r="325" spans="1:20">
@@ -20830,7 +20830,7 @@
         <v>1.97037560386473</v>
       </c>
       <c r="T325">
-        <v>10.7401008605957</v>
+        <v>11.88344287872314</v>
       </c>
     </row>
     <row r="326" spans="1:20">
@@ -20892,7 +20892,7 @@
         <v>1.97037560386473</v>
       </c>
       <c r="T326">
-        <v>9.746431350708008</v>
+        <v>11.50509548187256</v>
       </c>
     </row>
     <row r="327" spans="1:20">
@@ -20954,7 +20954,7 @@
         <v>1.97037560386473</v>
       </c>
       <c r="T327">
-        <v>10.78588771820068</v>
+        <v>11.87714672088623</v>
       </c>
     </row>
     <row r="328" spans="1:20">
@@ -21016,7 +21016,7 @@
         <v>1.97037560386473</v>
       </c>
       <c r="T328">
-        <v>10.20322322845459</v>
+        <v>11.87233638763428</v>
       </c>
     </row>
     <row r="329" spans="1:20">
@@ -21078,7 +21078,7 @@
         <v>1.97037560386473</v>
       </c>
       <c r="T329">
-        <v>10.58169078826904</v>
+        <v>11.33654117584229</v>
       </c>
     </row>
     <row r="330" spans="1:20">
@@ -21140,7 +21140,7 @@
         <v>1.97037560386473</v>
       </c>
       <c r="T330">
-        <v>10.2480354309082</v>
+        <v>11.87451171875</v>
       </c>
     </row>
     <row r="331" spans="1:20">
@@ -21202,7 +21202,7 @@
         <v>1.97037560386473</v>
       </c>
       <c r="T331">
-        <v>10.5224027633667</v>
+        <v>12.12379550933838</v>
       </c>
     </row>
     <row r="332" spans="1:20">
@@ -21326,7 +21326,7 @@
         <v>1.737287326388885</v>
       </c>
       <c r="T333">
-        <v>8.061291513</v>
+        <v>7.602435111999512</v>
       </c>
     </row>
     <row r="334" spans="1:20">
@@ -21388,7 +21388,7 @@
         <v>1.737287326388885</v>
       </c>
       <c r="T334">
-        <v>8.061291513</v>
+        <v>7.759527683258057</v>
       </c>
     </row>
     <row r="335" spans="1:20">
@@ -21512,7 +21512,7 @@
         <v>1.737287326388885</v>
       </c>
       <c r="T336">
-        <v>8.061291513</v>
+        <v>7.29768180847168</v>
       </c>
     </row>
     <row r="337" spans="1:20">
@@ -21636,7 +21636,7 @@
         <v>1.737287326388885</v>
       </c>
       <c r="T338">
-        <v>8.061291513</v>
+        <v>7.87708568572998</v>
       </c>
     </row>
     <row r="339" spans="1:20">
@@ -21760,7 +21760,7 @@
         <v>1.737287326388885</v>
       </c>
       <c r="T340">
-        <v>8.061291513</v>
+        <v>7.787544250488281</v>
       </c>
     </row>
     <row r="341" spans="1:20">
@@ -21822,7 +21822,7 @@
         <v>1.737287326388885</v>
       </c>
       <c r="T341">
-        <v>8.061291513</v>
+        <v>7.688488006591797</v>
       </c>
     </row>
     <row r="342" spans="1:20">
@@ -21884,7 +21884,7 @@
         <v>2.376467693236711</v>
       </c>
       <c r="T342">
-        <v>5.899476528167725</v>
+        <v>6.330611705780029</v>
       </c>
     </row>
     <row r="343" spans="1:20">
@@ -21946,7 +21946,7 @@
         <v>2.376467693236711</v>
       </c>
       <c r="T343">
-        <v>5.767599582672119</v>
+        <v>6.173649311065674</v>
       </c>
     </row>
     <row r="344" spans="1:20">
@@ -22008,7 +22008,7 @@
         <v>2.376467693236711</v>
       </c>
       <c r="T344">
-        <v>6.782872676849365</v>
+        <v>7.328144529</v>
       </c>
     </row>
     <row r="345" spans="1:20">
@@ -22070,7 +22070,7 @@
         <v>2.376467693236711</v>
       </c>
       <c r="T345">
-        <v>5.817192554473877</v>
+        <v>5.811906814575195</v>
       </c>
     </row>
     <row r="346" spans="1:20">
@@ -22194,7 +22194,7 @@
         <v>2.376467693236711</v>
       </c>
       <c r="T347">
-        <v>5.828804016113281</v>
+        <v>6.063469409942627</v>
       </c>
     </row>
     <row r="348" spans="1:20">
@@ -22256,7 +22256,7 @@
         <v>2.376467693236711</v>
       </c>
       <c r="T348">
-        <v>5.820079326629639</v>
+        <v>5.812430858612061</v>
       </c>
     </row>
     <row r="349" spans="1:20">
@@ -22318,7 +22318,7 @@
         <v>2.376467693236711</v>
       </c>
       <c r="T349">
-        <v>5.434885501861572</v>
+        <v>5.414723873138428</v>
       </c>
     </row>
     <row r="350" spans="1:20">
@@ -22380,7 +22380,7 @@
         <v>2.376467693236711</v>
       </c>
       <c r="T350">
-        <v>7.271665573120117</v>
+        <v>7.328144529</v>
       </c>
     </row>
     <row r="351" spans="1:20">
@@ -22628,7 +22628,7 @@
         <v>2.423351587301583</v>
       </c>
       <c r="T354">
-        <v>6.610795497894287</v>
+        <v>7.540194814</v>
       </c>
     </row>
     <row r="355" spans="1:20">
@@ -22752,7 +22752,7 @@
         <v>2.423351587301583</v>
       </c>
       <c r="T356">
-        <v>7.378888607025146</v>
+        <v>7.540194814</v>
       </c>
     </row>
     <row r="357" spans="1:20">
@@ -23062,7 +23062,7 @@
         <v>2.423351587301583</v>
       </c>
       <c r="T361">
-        <v>7.356324195861816</v>
+        <v>7.540194814</v>
       </c>
     </row>
     <row r="362" spans="1:20">
@@ -23186,7 +23186,7 @@
         <v>1.730120032441193</v>
       </c>
       <c r="T363">
-        <v>10.7785034</v>
+        <v>10.14219284057617</v>
       </c>
     </row>
     <row r="364" spans="1:20">
@@ -23310,7 +23310,7 @@
         <v>1.730120032441193</v>
       </c>
       <c r="T365">
-        <v>10.73616409301758</v>
+        <v>9.718853950500488</v>
       </c>
     </row>
     <row r="366" spans="1:20">
@@ -23434,7 +23434,7 @@
         <v>1.730120032441193</v>
       </c>
       <c r="T367">
-        <v>10.7785034</v>
+        <v>9.625615119934082</v>
       </c>
     </row>
     <row r="368" spans="1:20">
@@ -23496,7 +23496,7 @@
         <v>1.730120032441193</v>
       </c>
       <c r="T368">
-        <v>10.7785034</v>
+        <v>10.14624309539795</v>
       </c>
     </row>
     <row r="369" spans="1:20">
@@ -23558,7 +23558,7 @@
         <v>1.730120032441193</v>
       </c>
       <c r="T369">
-        <v>10.72179222106934</v>
+        <v>9.90834903717041</v>
       </c>
     </row>
     <row r="370" spans="1:20">
@@ -23620,7 +23620,7 @@
         <v>1.730120032441193</v>
       </c>
       <c r="T370">
-        <v>9.871456146240234</v>
+        <v>9.117221832275391</v>
       </c>
     </row>
     <row r="371" spans="1:20">
@@ -23682,7 +23682,7 @@
         <v>1.730120032441193</v>
       </c>
       <c r="T371">
-        <v>10.7785034</v>
+        <v>9.832233428955078</v>
       </c>
     </row>
     <row r="372" spans="1:20">
@@ -24364,7 +24364,7 @@
         <v>1.773572298325717</v>
       </c>
       <c r="T382">
-        <v>4.409111022949219</v>
+        <v>4.963390350341797</v>
       </c>
     </row>
     <row r="383" spans="1:20">
@@ -24426,7 +24426,7 @@
         <v>1.773572298325717</v>
       </c>
       <c r="T383">
-        <v>4.292019844055176</v>
+        <v>5.098110198974609</v>
       </c>
     </row>
     <row r="384" spans="1:20">
@@ -24488,7 +24488,7 @@
         <v>1.773572298325717</v>
       </c>
       <c r="T384">
-        <v>4.07460355758667</v>
+        <v>4.95067024230957</v>
       </c>
     </row>
     <row r="385" spans="1:20">
@@ -24550,7 +24550,7 @@
         <v>1.773572298325717</v>
       </c>
       <c r="T385">
-        <v>4.184364318847656</v>
+        <v>5.197969913482666</v>
       </c>
     </row>
     <row r="386" spans="1:20">
@@ -24612,7 +24612,7 @@
         <v>1.773572298325717</v>
       </c>
       <c r="T386">
-        <v>4.936800003051758</v>
+        <v>5.782193732</v>
       </c>
     </row>
     <row r="387" spans="1:20">
@@ -24674,7 +24674,7 @@
         <v>1.773572298325717</v>
       </c>
       <c r="T387">
-        <v>3.962855339050293</v>
+        <v>5.129520893096924</v>
       </c>
     </row>
     <row r="388" spans="1:20">
@@ -24736,7 +24736,7 @@
         <v>1.773572298325717</v>
       </c>
       <c r="T388">
-        <v>4.227689743041992</v>
+        <v>5.214359760284424</v>
       </c>
     </row>
     <row r="389" spans="1:20">
@@ -24798,7 +24798,7 @@
         <v>1.773572298325717</v>
       </c>
       <c r="T389">
-        <v>4.08728551864624</v>
+        <v>5.179055690765381</v>
       </c>
     </row>
     <row r="390" spans="1:20">
@@ -24860,7 +24860,7 @@
         <v>1.773572298325717</v>
       </c>
       <c r="T390">
-        <v>4.587085723876953</v>
+        <v>5.076343536376953</v>
       </c>
     </row>
     <row r="391" spans="1:20">
@@ -24922,7 +24922,7 @@
         <v>1.773572298325717</v>
       </c>
       <c r="T391">
-        <v>4.227290153503418</v>
+        <v>4.862308979034424</v>
       </c>
     </row>
     <row r="392" spans="1:20">
@@ -25728,7 +25728,7 @@
         <v>1.846136666666662</v>
       </c>
       <c r="T404">
-        <v>2.502321004867554</v>
+        <v>2.83945434</v>
       </c>
     </row>
     <row r="405" spans="1:20">
@@ -25790,7 +25790,7 @@
         <v>1.846136666666662</v>
       </c>
       <c r="T405">
-        <v>2.625871419906616</v>
+        <v>2.552469968795776</v>
       </c>
     </row>
     <row r="406" spans="1:20">
@@ -25914,7 +25914,7 @@
         <v>1.846136666666662</v>
       </c>
       <c r="T407">
-        <v>2.22539758682251</v>
+        <v>1.935667753219604</v>
       </c>
     </row>
     <row r="408" spans="1:20">
@@ -25976,7 +25976,7 @@
         <v>1.846136666666662</v>
       </c>
       <c r="T408">
-        <v>2.082525968551636</v>
+        <v>1.914267539978027</v>
       </c>
     </row>
     <row r="409" spans="1:20">
@@ -26038,7 +26038,7 @@
         <v>1.846136666666662</v>
       </c>
       <c r="T409">
-        <v>2.347411632537842</v>
+        <v>2.196933269500732</v>
       </c>
     </row>
     <row r="410" spans="1:20">
@@ -26100,7 +26100,7 @@
         <v>1.846136666666662</v>
       </c>
       <c r="T410">
-        <v>2.346250772476196</v>
+        <v>1.955207109451294</v>
       </c>
     </row>
     <row r="411" spans="1:20">
@@ -26224,7 +26224,7 @@
         <v>1.591948377581115</v>
       </c>
       <c r="T412">
-        <v>32.30075759</v>
+        <v>34.40091323852539</v>
       </c>
     </row>
     <row r="413" spans="1:20">
@@ -26348,7 +26348,7 @@
         <v>1.591948377581115</v>
       </c>
       <c r="T414">
-        <v>32.30075759</v>
+        <v>34.45871447</v>
       </c>
     </row>
     <row r="415" spans="1:20">
@@ -27154,7 +27154,7 @@
         <v>1.515440643274849</v>
       </c>
       <c r="T427">
-        <v>21.97322482</v>
+        <v>21.90173721313477</v>
       </c>
     </row>
     <row r="428" spans="1:20">
@@ -27278,7 +27278,7 @@
         <v>1.515440643274849</v>
       </c>
       <c r="T429">
-        <v>21.97322482</v>
+        <v>21.63896751403809</v>
       </c>
     </row>
     <row r="430" spans="1:20">
@@ -27650,7 +27650,7 @@
         <v>1.739244725738392</v>
       </c>
       <c r="T435">
-        <v>6.939493179321289</v>
+        <v>6.458674907684326</v>
       </c>
     </row>
     <row r="436" spans="1:20">
@@ -27774,7 +27774,7 @@
         <v>1.739244725738392</v>
       </c>
       <c r="T437">
-        <v>7.295132637023926</v>
+        <v>6.56992244720459</v>
       </c>
     </row>
     <row r="438" spans="1:20">
@@ -27836,7 +27836,7 @@
         <v>1.739244725738392</v>
       </c>
       <c r="T438">
-        <v>8.364402113000001</v>
+        <v>8.348868370056152</v>
       </c>
     </row>
     <row r="439" spans="1:20">
@@ -27898,7 +27898,7 @@
         <v>1.739244725738392</v>
       </c>
       <c r="T439">
-        <v>8.364402113000001</v>
+        <v>8.16913890838623</v>
       </c>
     </row>
     <row r="440" spans="1:20">
@@ -27960,7 +27960,7 @@
         <v>1.739244725738392</v>
       </c>
       <c r="T440">
-        <v>6.753073692321777</v>
+        <v>6.409237861633301</v>
       </c>
     </row>
     <row r="441" spans="1:20">
@@ -28022,7 +28022,7 @@
         <v>1.739244725738392</v>
       </c>
       <c r="T441">
-        <v>8.364402113000001</v>
+        <v>8.148983001708984</v>
       </c>
     </row>
     <row r="442" spans="1:20">
@@ -28146,7 +28146,7 @@
         <v>1.623689516129027</v>
       </c>
       <c r="T443">
-        <v>22.42975807189941</v>
+        <v>24.36534123</v>
       </c>
     </row>
     <row r="444" spans="1:20">
@@ -28704,7 +28704,7 @@
         <v>0.9535580137659756</v>
       </c>
       <c r="T452">
-        <v>18.00135231018066</v>
+        <v>20.12506484985352</v>
       </c>
     </row>
     <row r="453" spans="1:20">
@@ -28766,7 +28766,7 @@
         <v>0.9535580137659756</v>
       </c>
       <c r="T453">
-        <v>16.73426055908203</v>
+        <v>18.52768516540527</v>
       </c>
     </row>
     <row r="454" spans="1:20">
@@ -28828,7 +28828,7 @@
         <v>0.9535580137659756</v>
       </c>
       <c r="T454">
-        <v>18.12252044677734</v>
+        <v>18.96704292297363</v>
       </c>
     </row>
     <row r="455" spans="1:20">
@@ -28890,7 +28890,7 @@
         <v>0.9535580137659756</v>
       </c>
       <c r="T455">
-        <v>16.34079360961914</v>
+        <v>18.08022308349609</v>
       </c>
     </row>
     <row r="456" spans="1:20">
@@ -28952,7 +28952,7 @@
         <v>0.9535580137659756</v>
       </c>
       <c r="T456">
-        <v>17.74453544616699</v>
+        <v>22.44108581542969</v>
       </c>
     </row>
     <row r="457" spans="1:20">
@@ -29014,7 +29014,7 @@
         <v>0.9535580137659756</v>
       </c>
       <c r="T457">
-        <v>16.07662200927734</v>
+        <v>17.69192123413086</v>
       </c>
     </row>
     <row r="458" spans="1:20">
@@ -29076,7 +29076,7 @@
         <v>0.9535580137659756</v>
       </c>
       <c r="T458">
-        <v>17.61406707763672</v>
+        <v>20.26381683349609</v>
       </c>
     </row>
     <row r="459" spans="1:20">
@@ -29138,7 +29138,7 @@
         <v>0.9535580137659756</v>
       </c>
       <c r="T459">
-        <v>16.45114135742188</v>
+        <v>17.41656875610352</v>
       </c>
     </row>
     <row r="460" spans="1:20">
@@ -29200,7 +29200,7 @@
         <v>0.9535580137659756</v>
       </c>
       <c r="T460">
-        <v>16.73204612731934</v>
+        <v>16.10061073303223</v>
       </c>
     </row>
     <row r="461" spans="1:20">
@@ -29262,7 +29262,7 @@
         <v>0.9535580137659756</v>
       </c>
       <c r="T461">
-        <v>16.51244163513184</v>
+        <v>17.91872978210449</v>
       </c>
     </row>
     <row r="462" spans="1:20">
@@ -29510,7 +29510,7 @@
         <v>2.298045751633982</v>
       </c>
       <c r="T465">
-        <v>1.659549951553345</v>
+        <v>1.811073541641235</v>
       </c>
     </row>
     <row r="466" spans="1:20">
@@ -29634,7 +29634,7 @@
         <v>2.298045751633982</v>
       </c>
       <c r="T467">
-        <v>1.373591661453247</v>
+        <v>1.578813076019287</v>
       </c>
     </row>
     <row r="468" spans="1:20">
@@ -29696,7 +29696,7 @@
         <v>2.298045751633982</v>
       </c>
       <c r="T468">
-        <v>1.584346890449524</v>
+        <v>1.820826021</v>
       </c>
     </row>
     <row r="469" spans="1:20">
@@ -29758,7 +29758,7 @@
         <v>2.298045751633982</v>
       </c>
       <c r="T469">
-        <v>1.349913358688354</v>
+        <v>1.820826021</v>
       </c>
     </row>
     <row r="470" spans="1:20">
@@ -29882,7 +29882,7 @@
         <v>2.298045751633982</v>
       </c>
       <c r="T471">
-        <v>1.759477734565735</v>
+        <v>1.820826021</v>
       </c>
     </row>
     <row r="472" spans="1:20">
@@ -29944,7 +29944,7 @@
         <v>2.099784324728762</v>
       </c>
       <c r="T472">
-        <v>4.780822277069092</v>
+        <v>5.224677</v>
       </c>
     </row>
     <row r="473" spans="1:20">
@@ -30006,7 +30006,7 @@
         <v>2.099784324728762</v>
       </c>
       <c r="T473">
-        <v>3.88192081451416</v>
+        <v>4.277956008911133</v>
       </c>
     </row>
     <row r="474" spans="1:20">
@@ -30068,7 +30068,7 @@
         <v>2.099784324728762</v>
       </c>
       <c r="T474">
-        <v>4.633929252624512</v>
+        <v>5.186866760253906</v>
       </c>
     </row>
     <row r="475" spans="1:20">
@@ -30130,7 +30130,7 @@
         <v>2.099784324728762</v>
       </c>
       <c r="T475">
-        <v>3.25146484375</v>
+        <v>3.180663824081421</v>
       </c>
     </row>
     <row r="476" spans="1:20">
@@ -30192,7 +30192,7 @@
         <v>2.099784324728762</v>
       </c>
       <c r="T476">
-        <v>5.040864944458008</v>
+        <v>5.224677</v>
       </c>
     </row>
     <row r="477" spans="1:20">
@@ -30254,7 +30254,7 @@
         <v>2.099784324728762</v>
       </c>
       <c r="T477">
-        <v>3.245206356048584</v>
+        <v>3.407926559448242</v>
       </c>
     </row>
     <row r="478" spans="1:20">
@@ -30316,7 +30316,7 @@
         <v>2.099784324728762</v>
       </c>
       <c r="T478">
-        <v>3.829692840576172</v>
+        <v>3.673612117767334</v>
       </c>
     </row>
     <row r="479" spans="1:20">
@@ -30378,7 +30378,7 @@
         <v>2.099784324728762</v>
       </c>
       <c r="T479">
-        <v>3.82370138168335</v>
+        <v>3.647000789642334</v>
       </c>
     </row>
     <row r="480" spans="1:20">
@@ -30502,7 +30502,7 @@
         <v>2.099784324728762</v>
       </c>
       <c r="T481">
-        <v>3.444268226623535</v>
+        <v>3.402629137039185</v>
       </c>
     </row>
     <row r="482" spans="1:20">
@@ -30750,7 +30750,7 @@
         <v>1.59625134843581</v>
       </c>
       <c r="T485">
-        <v>15.96976661682129</v>
+        <v>16.50629723</v>
       </c>
     </row>
     <row r="486" spans="1:20">
@@ -30874,7 +30874,7 @@
         <v>1.59625134843581</v>
       </c>
       <c r="T487">
-        <v>15.78475856781006</v>
+        <v>16.50629723</v>
       </c>
     </row>
     <row r="488" spans="1:20">
@@ -30998,7 +30998,7 @@
         <v>1.59625134843581</v>
       </c>
       <c r="T489">
-        <v>15.65645980834961</v>
+        <v>16.14134979248047</v>
       </c>
     </row>
     <row r="490" spans="1:20">
@@ -31804,7 +31804,7 @@
         <v>2.040591812865494</v>
       </c>
       <c r="T502">
-        <v>7.218475818634033</v>
+        <v>6.906168937683105</v>
       </c>
     </row>
     <row r="503" spans="1:20">
@@ -31866,7 +31866,7 @@
         <v>2.040591812865494</v>
       </c>
       <c r="T503">
-        <v>7.078386306762695</v>
+        <v>6.796255111694336</v>
       </c>
     </row>
     <row r="504" spans="1:20">
@@ -31928,7 +31928,7 @@
         <v>2.040591812865494</v>
       </c>
       <c r="T504">
-        <v>7.057731151580811</v>
+        <v>6.788881301879883</v>
       </c>
     </row>
     <row r="505" spans="1:20">
@@ -31990,7 +31990,7 @@
         <v>2.040591812865494</v>
       </c>
       <c r="T505">
-        <v>7.303842544555664</v>
+        <v>6.952018737792969</v>
       </c>
     </row>
     <row r="506" spans="1:20">
@@ -32052,7 +32052,7 @@
         <v>2.040591812865494</v>
       </c>
       <c r="T506">
-        <v>6.811984062194824</v>
+        <v>6.62664270401001</v>
       </c>
     </row>
     <row r="507" spans="1:20">
@@ -32114,7 +32114,7 @@
         <v>2.040591812865494</v>
       </c>
       <c r="T507">
-        <v>7.133150577545166</v>
+        <v>6.832032203674316</v>
       </c>
     </row>
     <row r="508" spans="1:20">
@@ -32176,7 +32176,7 @@
         <v>2.040591812865494</v>
       </c>
       <c r="T508">
-        <v>7.327842235565186</v>
+        <v>6.972995281219482</v>
       </c>
     </row>
     <row r="509" spans="1:20">
@@ -32238,7 +32238,7 @@
         <v>2.040591812865494</v>
       </c>
       <c r="T509">
-        <v>7.197455406188965</v>
+        <v>6.884151458740234</v>
       </c>
     </row>
     <row r="510" spans="1:20">
@@ -32300,7 +32300,7 @@
         <v>2.040591812865494</v>
       </c>
       <c r="T510">
-        <v>7.05536413192749</v>
+        <v>6.78934383392334</v>
       </c>
     </row>
     <row r="511" spans="1:20">
@@ -32362,7 +32362,7 @@
         <v>2.040591812865494</v>
       </c>
       <c r="T511">
-        <v>6.861111164093018</v>
+        <v>6.638387680053711</v>
       </c>
     </row>
     <row r="512" spans="1:20">
@@ -32610,7 +32610,7 @@
         <v>1.643280925013678</v>
       </c>
       <c r="T515">
-        <v>9.336300849914551</v>
+        <v>9.539640426635742</v>
       </c>
     </row>
     <row r="516" spans="1:20">
@@ -32734,7 +32734,7 @@
         <v>1.643280925013678</v>
       </c>
       <c r="T517">
-        <v>8.996435165405273</v>
+        <v>9.608100891113281</v>
       </c>
     </row>
     <row r="518" spans="1:20">
@@ -32796,7 +32796,7 @@
         <v>1.643280925013678</v>
       </c>
       <c r="T518">
-        <v>9.823831558227539</v>
+        <v>10.02109050750732</v>
       </c>
     </row>
     <row r="519" spans="1:20">
@@ -32858,7 +32858,7 @@
         <v>1.643280925013678</v>
       </c>
       <c r="T519">
-        <v>8.979898452758789</v>
+        <v>9.480592727661133</v>
       </c>
     </row>
     <row r="520" spans="1:20">
@@ -32920,7 +32920,7 @@
         <v>1.643280925013678</v>
       </c>
       <c r="T520">
-        <v>8.805011049000001</v>
+        <v>9.086155891418457</v>
       </c>
     </row>
     <row r="521" spans="1:20">
@@ -32982,7 +32982,7 @@
         <v>1.643280925013678</v>
       </c>
       <c r="T521">
-        <v>9.919364929199219</v>
+        <v>9.773144721984863</v>
       </c>
     </row>
     <row r="522" spans="1:20">
@@ -33230,7 +33230,7 @@
         <v>1.588111525704804</v>
       </c>
       <c r="T525">
-        <v>8.726833343505859</v>
+        <v>9.507183074951172</v>
       </c>
     </row>
     <row r="526" spans="1:20">
@@ -33354,7 +33354,7 @@
         <v>1.588111525704804</v>
       </c>
       <c r="T527">
-        <v>7.971700668334961</v>
+        <v>8.86180591583252</v>
       </c>
     </row>
     <row r="528" spans="1:20">
@@ -33478,7 +33478,7 @@
         <v>1.588111525704804</v>
       </c>
       <c r="T529">
-        <v>8.203652381896973</v>
+        <v>8.597249984741211</v>
       </c>
     </row>
     <row r="530" spans="1:20">
@@ -33602,7 +33602,7 @@
         <v>1.588111525704804</v>
       </c>
       <c r="T531">
-        <v>8.789212226867676</v>
+        <v>9.653412818908691</v>
       </c>
     </row>
     <row r="532" spans="1:20">
@@ -33664,7 +33664,7 @@
         <v>0.9412555948174304</v>
       </c>
       <c r="T532">
-        <v>39.38954162597656</v>
+        <v>41.95776151</v>
       </c>
     </row>
     <row r="533" spans="1:20">
@@ -33788,7 +33788,7 @@
         <v>0.9412555948174304</v>
       </c>
       <c r="T534">
-        <v>40.47546768188477</v>
+        <v>41.95776151</v>
       </c>
     </row>
     <row r="535" spans="1:20">
@@ -33850,7 +33850,7 @@
         <v>0.9412555948174304</v>
       </c>
       <c r="T535">
-        <v>29.21303558349609</v>
+        <v>30.67021179199219</v>
       </c>
     </row>
     <row r="536" spans="1:20">
@@ -33912,7 +33912,7 @@
         <v>0.9412555948174304</v>
       </c>
       <c r="T536">
-        <v>40.73567581176758</v>
+        <v>36.07433700561523</v>
       </c>
     </row>
     <row r="537" spans="1:20">
@@ -33974,7 +33974,7 @@
         <v>0.9412555948174304</v>
       </c>
       <c r="T537">
-        <v>28.07861709594727</v>
+        <v>28.73343467712402</v>
       </c>
     </row>
     <row r="538" spans="1:20">
@@ -34036,7 +34036,7 @@
         <v>0.9412555948174304</v>
       </c>
       <c r="T538">
-        <v>40.47929000854492</v>
+        <v>36.02834701538086</v>
       </c>
     </row>
     <row r="539" spans="1:20">
@@ -34098,7 +34098,7 @@
         <v>0.9412555948174304</v>
       </c>
       <c r="T539">
-        <v>32.07242965698242</v>
+        <v>31.23816108703613</v>
       </c>
     </row>
     <row r="540" spans="1:20">
@@ -34222,7 +34222,7 @@
         <v>0.9412555948174304</v>
       </c>
       <c r="T541">
-        <v>28.87994194030762</v>
+        <v>30.77400016784668</v>
       </c>
     </row>
     <row r="542" spans="1:20">
@@ -34470,7 +34470,7 @@
         <v>1.957299779977992</v>
       </c>
       <c r="T545">
-        <v>3.351094214</v>
+        <v>3.626852035522461</v>
       </c>
     </row>
     <row r="546" spans="1:20">
@@ -34532,7 +34532,7 @@
         <v>1.957299779977992</v>
       </c>
       <c r="T546">
-        <v>3.368574857711792</v>
+        <v>3.499791622161865</v>
       </c>
     </row>
     <row r="547" spans="1:20">
@@ -34718,7 +34718,7 @@
         <v>1.957299779977992</v>
       </c>
       <c r="T549">
-        <v>3.351094214</v>
+        <v>3.780847549438477</v>
       </c>
     </row>
     <row r="550" spans="1:20">
@@ -34842,7 +34842,7 @@
         <v>1.957299779977992</v>
       </c>
       <c r="T551">
-        <v>3.665162563323975</v>
+        <v>4.120164394378662</v>
       </c>
     </row>
     <row r="552" spans="1:20">
@@ -34904,7 +34904,7 @@
         <v>1.858633633633629</v>
       </c>
       <c r="T552">
-        <v>10.14132213592529</v>
+        <v>10.07097148895264</v>
       </c>
     </row>
     <row r="553" spans="1:20">
@@ -34966,7 +34966,7 @@
         <v>1.858633633633629</v>
       </c>
       <c r="T553">
-        <v>11.92818641662598</v>
+        <v>10.90258407592773</v>
       </c>
     </row>
     <row r="554" spans="1:20">
@@ -35028,7 +35028,7 @@
         <v>1.858633633633629</v>
       </c>
       <c r="T554">
-        <v>10.27441120147705</v>
+        <v>10.18695449829102</v>
       </c>
     </row>
     <row r="555" spans="1:20">
@@ -35090,7 +35090,7 @@
         <v>1.858633633633629</v>
       </c>
       <c r="T555">
-        <v>10.19405269622803</v>
+        <v>9.71210765838623</v>
       </c>
     </row>
     <row r="556" spans="1:20">
@@ -35152,7 +35152,7 @@
         <v>1.858633633633629</v>
       </c>
       <c r="T556">
-        <v>12.55041694641113</v>
+        <v>12.25530910491943</v>
       </c>
     </row>
     <row r="557" spans="1:20">
@@ -35214,7 +35214,7 @@
         <v>1.858633633633629</v>
       </c>
       <c r="T557">
-        <v>11.28368186950684</v>
+        <v>10.69839096069336</v>
       </c>
     </row>
     <row r="558" spans="1:20">
@@ -35276,7 +35276,7 @@
         <v>1.858633633633629</v>
       </c>
       <c r="T558">
-        <v>11.56916618347168</v>
+        <v>10.99553394317627</v>
       </c>
     </row>
     <row r="559" spans="1:20">
@@ -35338,7 +35338,7 @@
         <v>1.858633633633629</v>
       </c>
       <c r="T559">
-        <v>10.91088390350342</v>
+        <v>9.981274604797363</v>
       </c>
     </row>
     <row r="560" spans="1:20">
@@ -35400,7 +35400,7 @@
         <v>1.858633633633629</v>
       </c>
       <c r="T560">
-        <v>10.41090393066406</v>
+        <v>10.29692077636719</v>
       </c>
     </row>
     <row r="561" spans="1:20">
@@ -35462,7 +35462,7 @@
         <v>1.858633633633629</v>
       </c>
       <c r="T561">
-        <v>12.33979797363281</v>
+        <v>11.64238262176514</v>
       </c>
     </row>
     <row r="562" spans="1:20">
@@ -35524,7 +35524,7 @@
         <v>1.933137553418799</v>
       </c>
       <c r="T562">
-        <v>15.51504707336426</v>
+        <v>15.18274593353271</v>
       </c>
     </row>
     <row r="563" spans="1:20">
@@ -35586,7 +35586,7 @@
         <v>1.933137553418799</v>
       </c>
       <c r="T563">
-        <v>15.11639595031738</v>
+        <v>14.63112258911133</v>
       </c>
     </row>
     <row r="564" spans="1:20">
@@ -35648,7 +35648,7 @@
         <v>1.933137553418799</v>
       </c>
       <c r="T564">
-        <v>15.29693412780762</v>
+        <v>14.75723266601562</v>
       </c>
     </row>
     <row r="565" spans="1:20">
@@ -35710,7 +35710,7 @@
         <v>1.933137553418799</v>
       </c>
       <c r="T565">
-        <v>14.54556369781494</v>
+        <v>14.38040065765381</v>
       </c>
     </row>
     <row r="566" spans="1:20">
@@ -35772,7 +35772,7 @@
         <v>1.933137553418799</v>
       </c>
       <c r="T566">
-        <v>15.56997776031494</v>
+        <v>15.51483917236328</v>
       </c>
     </row>
     <row r="567" spans="1:20">
@@ -35834,7 +35834,7 @@
         <v>1.933137553418799</v>
       </c>
       <c r="T567">
-        <v>14.93873119354248</v>
+        <v>14.72969722747803</v>
       </c>
     </row>
     <row r="568" spans="1:20">
@@ -35896,7 +35896,7 @@
         <v>1.933137553418799</v>
       </c>
       <c r="T568">
-        <v>14.63797283172607</v>
+        <v>14.20554065704346</v>
       </c>
     </row>
     <row r="569" spans="1:20">
@@ -35958,7 +35958,7 @@
         <v>1.933137553418799</v>
       </c>
       <c r="T569">
-        <v>15.27795219421387</v>
+        <v>15.01393604278564</v>
       </c>
     </row>
     <row r="570" spans="1:20">
@@ -36020,7 +36020,7 @@
         <v>1.933137553418799</v>
       </c>
       <c r="T570">
-        <v>15.4479808807373</v>
+        <v>14.88713550567627</v>
       </c>
     </row>
     <row r="571" spans="1:20">
@@ -36082,7 +36082,7 @@
         <v>1.933137553418799</v>
       </c>
       <c r="T571">
-        <v>15.34505176544189</v>
+        <v>14.85032844543457</v>
       </c>
     </row>
     <row r="572" spans="1:20">
@@ -36144,7 +36144,7 @@
         <v>2.37059118885649</v>
       </c>
       <c r="T572">
-        <v>4.271190643310547</v>
+        <v>4.680284976959229</v>
       </c>
     </row>
     <row r="573" spans="1:20">
@@ -36206,7 +36206,7 @@
         <v>2.37059118885649</v>
       </c>
       <c r="T573">
-        <v>4.613029479980469</v>
+        <v>4.647492408752441</v>
       </c>
     </row>
     <row r="574" spans="1:20">
@@ -36268,7 +36268,7 @@
         <v>2.37059118885649</v>
       </c>
       <c r="T574">
-        <v>4.470724582672119</v>
+        <v>4.991365639</v>
       </c>
     </row>
     <row r="575" spans="1:20">
@@ -36330,7 +36330,7 @@
         <v>2.37059118885649</v>
       </c>
       <c r="T575">
-        <v>4.991365639</v>
+        <v>4.673830032348633</v>
       </c>
     </row>
     <row r="576" spans="1:20">
@@ -36454,7 +36454,7 @@
         <v>2.37059118885649</v>
       </c>
       <c r="T577">
-        <v>4.52872371673584</v>
+        <v>4.741638660430908</v>
       </c>
     </row>
     <row r="578" spans="1:20">
@@ -36516,7 +36516,7 @@
         <v>2.37059118885649</v>
       </c>
       <c r="T578">
-        <v>4.819759845733643</v>
+        <v>4.733240604400635</v>
       </c>
     </row>
     <row r="579" spans="1:20">
@@ -36578,7 +36578,7 @@
         <v>2.37059118885649</v>
       </c>
       <c r="T579">
-        <v>4.683228492736816</v>
+        <v>4.73428201675415</v>
       </c>
     </row>
     <row r="580" spans="1:20">
@@ -36640,7 +36640,7 @@
         <v>2.37059118885649</v>
       </c>
       <c r="T580">
-        <v>4.301204204559326</v>
+        <v>4.856946468353271</v>
       </c>
     </row>
     <row r="581" spans="1:20">
@@ -36702,7 +36702,7 @@
         <v>2.37059118885649</v>
       </c>
       <c r="T581">
-        <v>4.575061798095703</v>
+        <v>4.730508804321289</v>
       </c>
     </row>
     <row r="582" spans="1:20">
@@ -36764,7 +36764,7 @@
         <v>2.237698653198649</v>
       </c>
       <c r="T582">
-        <v>5.152670383453369</v>
+        <v>5.892336368560791</v>
       </c>
     </row>
     <row r="583" spans="1:20">
@@ -36826,7 +36826,7 @@
         <v>2.237698653198649</v>
       </c>
       <c r="T583">
-        <v>4.725376129150391</v>
+        <v>5.482722282409668</v>
       </c>
     </row>
     <row r="584" spans="1:20">
@@ -36888,7 +36888,7 @@
         <v>2.237698653198649</v>
       </c>
       <c r="T584">
-        <v>7.054429054260254</v>
+        <v>6.85808277130127</v>
       </c>
     </row>
     <row r="585" spans="1:20">
@@ -36950,7 +36950,7 @@
         <v>2.237698653198649</v>
       </c>
       <c r="T585">
-        <v>4.056288719177246</v>
+        <v>4.369197845458984</v>
       </c>
     </row>
     <row r="586" spans="1:20">
@@ -37012,7 +37012,7 @@
         <v>2.237698653198649</v>
       </c>
       <c r="T586">
-        <v>6.142784595489502</v>
+        <v>7.694594860076904</v>
       </c>
     </row>
     <row r="587" spans="1:20">
@@ -37074,7 +37074,7 @@
         <v>2.237698653198649</v>
       </c>
       <c r="T587">
-        <v>4.468830585479736</v>
+        <v>4.703450202941895</v>
       </c>
     </row>
     <row r="588" spans="1:20">
@@ -37136,7 +37136,7 @@
         <v>2.237698653198649</v>
       </c>
       <c r="T588">
-        <v>5.158052444458008</v>
+        <v>5.234468936920166</v>
       </c>
     </row>
     <row r="589" spans="1:20">
@@ -37198,7 +37198,7 @@
         <v>2.237698653198649</v>
       </c>
       <c r="T589">
-        <v>5.39513111114502</v>
+        <v>5.323379516601562</v>
       </c>
     </row>
     <row r="590" spans="1:20">
@@ -37260,7 +37260,7 @@
         <v>2.237698653198649</v>
       </c>
       <c r="T590">
-        <v>4.980704784393311</v>
+        <v>5.540534973144531</v>
       </c>
     </row>
     <row r="591" spans="1:20">
@@ -37322,7 +37322,7 @@
         <v>2.237698653198649</v>
       </c>
       <c r="T591">
-        <v>5.120785236358643</v>
+        <v>5.385075092315674</v>
       </c>
     </row>
     <row r="592" spans="1:20">
@@ -37384,7 +37384,7 @@
         <v>2.013619567770727</v>
       </c>
       <c r="T592">
-        <v>7.562134348</v>
+        <v>5.244720458984375</v>
       </c>
     </row>
     <row r="593" spans="1:20">
@@ -37446,7 +37446,7 @@
         <v>2.013619567770727</v>
       </c>
       <c r="T593">
-        <v>4.469127655029297</v>
+        <v>3.91273832321167</v>
       </c>
     </row>
     <row r="594" spans="1:20">
@@ -37508,7 +37508,7 @@
         <v>2.013619567770727</v>
       </c>
       <c r="T594">
-        <v>7.562134348</v>
+        <v>4.716278076171875</v>
       </c>
     </row>
     <row r="595" spans="1:20">
@@ -37570,7 +37570,7 @@
         <v>2.013619567770727</v>
       </c>
       <c r="T595">
-        <v>4.708359241485596</v>
+        <v>4.227369785308838</v>
       </c>
     </row>
     <row r="596" spans="1:20">
@@ -37632,7 +37632,7 @@
         <v>2.013619567770727</v>
       </c>
       <c r="T596">
-        <v>7.562134348</v>
+        <v>5.680646896362305</v>
       </c>
     </row>
     <row r="597" spans="1:20">
@@ -37694,7 +37694,7 @@
         <v>2.013619567770727</v>
       </c>
       <c r="T597">
-        <v>4.765525341033936</v>
+        <v>4.871171951293945</v>
       </c>
     </row>
     <row r="598" spans="1:20">
@@ -37756,7 +37756,7 @@
         <v>2.013619567770727</v>
       </c>
       <c r="T598">
-        <v>5.188522815704346</v>
+        <v>5.449916839599609</v>
       </c>
     </row>
     <row r="599" spans="1:20">
@@ -37818,7 +37818,7 @@
         <v>2.013619567770727</v>
       </c>
       <c r="T599">
-        <v>4.713887691497803</v>
+        <v>4.598299503326416</v>
       </c>
     </row>
     <row r="600" spans="1:20">
@@ -37880,7 +37880,7 @@
         <v>2.013619567770727</v>
       </c>
       <c r="T600">
-        <v>5.547035217285156</v>
+        <v>5.819094657897949</v>
       </c>
     </row>
     <row r="601" spans="1:20">
@@ -37942,7 +37942,7 @@
         <v>2.013619567770727</v>
       </c>
       <c r="T601">
-        <v>4.68962287902832</v>
+        <v>4.408620834350586</v>
       </c>
     </row>
     <row r="602" spans="1:20">
@@ -38004,7 +38004,7 @@
         <v>2.083700770077002</v>
       </c>
       <c r="T602">
-        <v>4.970445156097412</v>
+        <v>4.944818019866943</v>
       </c>
     </row>
     <row r="603" spans="1:20">
@@ -38066,7 +38066,7 @@
         <v>2.083700770077002</v>
       </c>
       <c r="T603">
-        <v>4.959637641906738</v>
+        <v>4.965765953063965</v>
       </c>
     </row>
     <row r="604" spans="1:20">
@@ -38128,7 +38128,7 @@
         <v>2.083700770077002</v>
       </c>
       <c r="T604">
-        <v>4.950649261474609</v>
+        <v>4.935945987701416</v>
       </c>
     </row>
     <row r="605" spans="1:20">
@@ -38190,7 +38190,7 @@
         <v>2.083700770077002</v>
       </c>
       <c r="T605">
-        <v>4.90825366973877</v>
+        <v>5.014216899871826</v>
       </c>
     </row>
     <row r="606" spans="1:20">
@@ -38252,7 +38252,7 @@
         <v>2.083700770077002</v>
       </c>
       <c r="T606">
-        <v>6.726372122</v>
+        <v>6.019253253936768</v>
       </c>
     </row>
     <row r="607" spans="1:20">
@@ -38314,7 +38314,7 @@
         <v>2.083700770077002</v>
       </c>
       <c r="T607">
-        <v>4.795131846</v>
+        <v>4.810574531555176</v>
       </c>
     </row>
     <row r="608" spans="1:20">
@@ -38376,7 +38376,7 @@
         <v>2.083700770077002</v>
       </c>
       <c r="T608">
-        <v>4.87573766708374</v>
+        <v>4.870941638946533</v>
       </c>
     </row>
     <row r="609" spans="1:20">
@@ -38438,7 +38438,7 @@
         <v>2.083700770077002</v>
       </c>
       <c r="T609">
-        <v>4.795131846</v>
+        <v>4.835620403289795</v>
       </c>
     </row>
     <row r="610" spans="1:20">
@@ -38562,7 +38562,7 @@
         <v>2.083700770077002</v>
       </c>
       <c r="T611">
-        <v>4.95203971862793</v>
+        <v>4.954070091247559</v>
       </c>
     </row>
     <row r="612" spans="1:20">
@@ -38624,7 +38624,7 @@
         <v>2.22803097521982</v>
       </c>
       <c r="T612">
-        <v>4.760284423828125</v>
+        <v>4.660337924957275</v>
       </c>
     </row>
     <row r="613" spans="1:20">
@@ -38686,7 +38686,7 @@
         <v>2.22803097521982</v>
       </c>
       <c r="T613">
-        <v>4.726848602294922</v>
+        <v>4.575746059417725</v>
       </c>
     </row>
     <row r="614" spans="1:20">
@@ -38748,7 +38748,7 @@
         <v>2.22803097521982</v>
       </c>
       <c r="T614">
-        <v>4.830859184265137</v>
+        <v>4.75984001159668</v>
       </c>
     </row>
     <row r="615" spans="1:20">
@@ -38810,7 +38810,7 @@
         <v>2.22803097521982</v>
       </c>
       <c r="T615">
-        <v>4.787600994110107</v>
+        <v>4.615003108978271</v>
       </c>
     </row>
     <row r="616" spans="1:20">
@@ -38872,7 +38872,7 @@
         <v>2.22803097521982</v>
       </c>
       <c r="T616">
-        <v>4.710793972015381</v>
+        <v>4.611905574798584</v>
       </c>
     </row>
     <row r="617" spans="1:20">
@@ -38934,7 +38934,7 @@
         <v>2.22803097521982</v>
       </c>
       <c r="T617">
-        <v>4.765442371368408</v>
+        <v>4.608414649963379</v>
       </c>
     </row>
     <row r="618" spans="1:20">
@@ -38996,7 +38996,7 @@
         <v>2.22803097521982</v>
       </c>
       <c r="T618">
-        <v>4.808913707733154</v>
+        <v>4.643045425415039</v>
       </c>
     </row>
     <row r="619" spans="1:20">
@@ -39058,7 +39058,7 @@
         <v>2.22803097521982</v>
       </c>
       <c r="T619">
-        <v>4.784150123596191</v>
+        <v>4.734967231750488</v>
       </c>
     </row>
     <row r="620" spans="1:20">
@@ -39120,7 +39120,7 @@
         <v>2.22803097521982</v>
       </c>
       <c r="T620">
-        <v>4.553709506988525</v>
+        <v>4.536363636</v>
       </c>
     </row>
     <row r="621" spans="1:20">
@@ -39182,7 +39182,7 @@
         <v>2.22803097521982</v>
       </c>
       <c r="T621">
-        <v>4.611560344696045</v>
+        <v>4.536363636</v>
       </c>
     </row>
     <row r="622" spans="1:20">
@@ -39802,7 +39802,7 @@
         <v>2.405435254803671</v>
       </c>
       <c r="T631">
-        <v>2.792669928</v>
+        <v>2.80419135093689</v>
       </c>
     </row>
     <row r="632" spans="1:20">
@@ -39864,7 +39864,7 @@
         <v>2.30647034534534</v>
       </c>
       <c r="T632">
-        <v>12.47157382965088</v>
+        <v>11.22984981536865</v>
       </c>
     </row>
     <row r="633" spans="1:20">
@@ -39926,7 +39926,7 @@
         <v>2.30647034534534</v>
       </c>
       <c r="T633">
-        <v>10.16775131225586</v>
+        <v>8.844075202941895</v>
       </c>
     </row>
     <row r="634" spans="1:20">
@@ -39988,7 +39988,7 @@
         <v>2.30647034534534</v>
       </c>
       <c r="T634">
-        <v>12.47723197937012</v>
+        <v>11.26251316070557</v>
       </c>
     </row>
     <row r="635" spans="1:20">
@@ -40050,7 +40050,7 @@
         <v>2.30647034534534</v>
       </c>
       <c r="T635">
-        <v>9.614483833312988</v>
+        <v>8.912652969360352</v>
       </c>
     </row>
     <row r="636" spans="1:20">
@@ -40174,7 +40174,7 @@
         <v>2.30647034534534</v>
       </c>
       <c r="T637">
-        <v>10.5845365524292</v>
+        <v>9.713582992553711</v>
       </c>
     </row>
     <row r="638" spans="1:20">
@@ -40236,7 +40236,7 @@
         <v>2.30647034534534</v>
       </c>
       <c r="T638">
-        <v>10.72429180145264</v>
+        <v>9.830887794494629</v>
       </c>
     </row>
     <row r="639" spans="1:20">
@@ -40298,7 +40298,7 @@
         <v>2.30647034534534</v>
       </c>
       <c r="T639">
-        <v>11.82154369354248</v>
+        <v>10.87420845031738</v>
       </c>
     </row>
     <row r="640" spans="1:20">
@@ -40360,7 +40360,7 @@
         <v>2.30647034534534</v>
       </c>
       <c r="T640">
-        <v>12.53282341</v>
+        <v>11.9533634185791</v>
       </c>
     </row>
     <row r="641" spans="1:20">
@@ -40422,7 +40422,7 @@
         <v>2.30647034534534</v>
       </c>
       <c r="T641">
-        <v>10.1032772064209</v>
+        <v>8.903817176818848</v>
       </c>
     </row>
     <row r="642" spans="1:20">
@@ -40856,7 +40856,7 @@
         <v>1.89029585006693</v>
       </c>
       <c r="T648">
-        <v>1.509975514</v>
+        <v>1.757864832878113</v>
       </c>
     </row>
     <row r="649" spans="1:20">
@@ -40918,7 +40918,7 @@
         <v>1.89029585006693</v>
       </c>
       <c r="T649">
-        <v>1.509975514</v>
+        <v>1.775752902030945</v>
       </c>
     </row>
     <row r="650" spans="1:20">
@@ -40980,7 +40980,7 @@
         <v>1.89029585006693</v>
       </c>
       <c r="T650">
-        <v>2.376714468002319</v>
+        <v>2.602083041</v>
       </c>
     </row>
     <row r="651" spans="1:20">
@@ -41042,7 +41042,7 @@
         <v>1.89029585006693</v>
       </c>
       <c r="T651">
-        <v>1.509975514</v>
+        <v>1.81696355342865</v>
       </c>
     </row>
     <row r="652" spans="1:20">
@@ -41166,7 +41166,7 @@
         <v>2.227892787524361</v>
       </c>
       <c r="T653">
-        <v>4.229025840759277</v>
+        <v>3.7156982421875</v>
       </c>
     </row>
     <row r="654" spans="1:20">
@@ -41290,7 +41290,7 @@
         <v>2.227892787524361</v>
       </c>
       <c r="T655">
-        <v>3.501261234283447</v>
+        <v>3.000931978225708</v>
       </c>
     </row>
     <row r="656" spans="1:20">
@@ -41414,7 +41414,7 @@
         <v>2.227892787524361</v>
       </c>
       <c r="T657">
-        <v>3.17821741104126</v>
+        <v>2.954480886459351</v>
       </c>
     </row>
     <row r="658" spans="1:20">
@@ -41476,7 +41476,7 @@
         <v>2.227892787524361</v>
       </c>
       <c r="T658">
-        <v>2.766836404800415</v>
+        <v>2.479314565658569</v>
       </c>
     </row>
     <row r="659" spans="1:20">
@@ -41538,7 +41538,7 @@
         <v>2.227892787524361</v>
       </c>
       <c r="T659">
-        <v>4.182485580444336</v>
+        <v>3.709486722946167</v>
       </c>
     </row>
     <row r="660" spans="1:20">
@@ -41600,7 +41600,7 @@
         <v>2.227892787524361</v>
       </c>
       <c r="T660">
-        <v>3.031026124954224</v>
+        <v>2.826448202133179</v>
       </c>
     </row>
     <row r="661" spans="1:20">
@@ -41662,7 +41662,7 @@
         <v>2.227892787524361</v>
       </c>
       <c r="T661">
-        <v>2.913920164108276</v>
+        <v>2.658802270889282</v>
       </c>
     </row>
     <row r="662" spans="1:20">
@@ -42220,7 +42220,7 @@
         <v>1.765384507535923</v>
       </c>
       <c r="T670">
-        <v>23.56489562988281</v>
+        <v>23.06797409057617</v>
       </c>
     </row>
     <row r="671" spans="1:20">
@@ -42344,7 +42344,7 @@
         <v>1.547402425267904</v>
       </c>
       <c r="T672">
-        <v>51.51596450805664</v>
+        <v>51.91889572143555</v>
       </c>
     </row>
     <row r="673" spans="1:20">
@@ -42406,7 +42406,7 @@
         <v>1.547402425267904</v>
       </c>
       <c r="T673">
-        <v>56.05889511108398</v>
+        <v>57.80943298339844</v>
       </c>
     </row>
     <row r="674" spans="1:20">
@@ -42468,7 +42468,7 @@
         <v>1.547402425267904</v>
       </c>
       <c r="T674">
-        <v>54.00954437255859</v>
+        <v>53.2627067565918</v>
       </c>
     </row>
     <row r="675" spans="1:20">
@@ -42530,7 +42530,7 @@
         <v>1.547402425267904</v>
       </c>
       <c r="T675">
-        <v>49.54691314697266</v>
+        <v>54.00444412231445</v>
       </c>
     </row>
     <row r="676" spans="1:20">
@@ -42592,7 +42592,7 @@
         <v>1.547402425267904</v>
       </c>
       <c r="T676">
-        <v>52.58858489990234</v>
+        <v>52.2827262878418</v>
       </c>
     </row>
     <row r="677" spans="1:20">
@@ -42654,7 +42654,7 @@
         <v>1.547402425267904</v>
       </c>
       <c r="T677">
-        <v>49.42953491210938</v>
+        <v>52.80177307128906</v>
       </c>
     </row>
     <row r="678" spans="1:20">
@@ -42716,7 +42716,7 @@
         <v>1.547402425267904</v>
       </c>
       <c r="T678">
-        <v>53.90465545654297</v>
+        <v>56.01375198364258</v>
       </c>
     </row>
     <row r="679" spans="1:20">
@@ -42778,7 +42778,7 @@
         <v>1.547402425267904</v>
       </c>
       <c r="T679">
-        <v>46.15472793579102</v>
+        <v>50.01625823974609</v>
       </c>
     </row>
     <row r="680" spans="1:20">
@@ -42840,7 +42840,7 @@
         <v>1.547402425267904</v>
       </c>
       <c r="T680">
-        <v>49.64104080200195</v>
+        <v>53.90592956542969</v>
       </c>
     </row>
     <row r="681" spans="1:20">
@@ -42902,7 +42902,7 @@
         <v>1.547402425267904</v>
       </c>
       <c r="T681">
-        <v>50.98004150390625</v>
+        <v>54.41610336303711</v>
       </c>
     </row>
     <row r="682" spans="1:20">
@@ -42964,7 +42964,7 @@
         <v>1.589453333333329</v>
       </c>
       <c r="T682">
-        <v>10.5516529083252</v>
+        <v>11.97119617462158</v>
       </c>
     </row>
     <row r="683" spans="1:20">
@@ -43026,7 +43026,7 @@
         <v>1.589453333333329</v>
       </c>
       <c r="T683">
-        <v>10.71072578430176</v>
+        <v>11.19207572937012</v>
       </c>
     </row>
     <row r="684" spans="1:20">
@@ -43088,7 +43088,7 @@
         <v>1.589453333333329</v>
       </c>
       <c r="T684">
-        <v>11.91774368286133</v>
+        <v>13.2733793258667</v>
       </c>
     </row>
     <row r="685" spans="1:20">
@@ -43212,7 +43212,7 @@
         <v>1.589453333333329</v>
       </c>
       <c r="T686">
-        <v>11.4931640625</v>
+        <v>13.16152191162109</v>
       </c>
     </row>
     <row r="687" spans="1:20">
@@ -43336,7 +43336,7 @@
         <v>1.589453333333329</v>
       </c>
       <c r="T688">
-        <v>8.575238227844238</v>
+        <v>8.484703588</v>
       </c>
     </row>
     <row r="689" spans="1:20">
@@ -44080,7 +44080,7 @@
         <v>2.127851421188627</v>
       </c>
       <c r="T700">
-        <v>6.481196403503418</v>
+        <v>6.909327507019043</v>
       </c>
     </row>
     <row r="701" spans="1:20">
@@ -44204,7 +44204,7 @@
         <v>1.244368978805391</v>
       </c>
       <c r="T702">
-        <v>29.82905960083008</v>
+        <v>31.30850601196289</v>
       </c>
     </row>
     <row r="703" spans="1:20">
@@ -44328,7 +44328,7 @@
         <v>1.244368978805391</v>
       </c>
       <c r="T704">
-        <v>30.34478950500488</v>
+        <v>32.70624160766602</v>
       </c>
     </row>
     <row r="705" spans="1:20">
@@ -44390,7 +44390,7 @@
         <v>1.244368978805391</v>
       </c>
       <c r="T705">
-        <v>29.96875381469727</v>
+        <v>28.87283328</v>
       </c>
     </row>
     <row r="706" spans="1:20">
@@ -44452,7 +44452,7 @@
         <v>1.244368978805391</v>
       </c>
       <c r="T706">
-        <v>30.35322189331055</v>
+        <v>32.01560974121094</v>
       </c>
     </row>
     <row r="707" spans="1:20">
@@ -44514,7 +44514,7 @@
         <v>1.244368978805391</v>
       </c>
       <c r="T707">
-        <v>30.0340633392334</v>
+        <v>29.53913116455078</v>
       </c>
     </row>
     <row r="708" spans="1:20">
@@ -44576,7 +44576,7 @@
         <v>1.244368978805391</v>
       </c>
       <c r="T708">
-        <v>32.11573028564453</v>
+        <v>32.89941059</v>
       </c>
     </row>
     <row r="709" spans="1:20">
@@ -44638,7 +44638,7 @@
         <v>1.244368978805391</v>
       </c>
       <c r="T709">
-        <v>28.87283328</v>
+        <v>30.37360763549805</v>
       </c>
     </row>
     <row r="710" spans="1:20">
@@ -44700,7 +44700,7 @@
         <v>1.244368978805391</v>
       </c>
       <c r="T710">
-        <v>30.01021957397461</v>
+        <v>29.23862838745117</v>
       </c>
     </row>
     <row r="711" spans="1:20">
@@ -44762,7 +44762,7 @@
         <v>1.244368978805391</v>
       </c>
       <c r="T711">
-        <v>29.14803314208984</v>
+        <v>28.87283328</v>
       </c>
     </row>
     <row r="712" spans="1:20">
@@ -45444,7 +45444,7 @@
         <v>1.3442968179447</v>
       </c>
       <c r="T722">
-        <v>37.93062973022461</v>
+        <v>36.45205307006836</v>
       </c>
     </row>
     <row r="723" spans="1:20">
@@ -45506,7 +45506,7 @@
         <v>1.3442968179447</v>
       </c>
       <c r="T723">
-        <v>38.36619186401367</v>
+        <v>35.33406448364258</v>
       </c>
     </row>
     <row r="724" spans="1:20">
@@ -45568,7 +45568,7 @@
         <v>1.3442968179447</v>
       </c>
       <c r="T724">
-        <v>38.94498825073242</v>
+        <v>38.79719924926758</v>
       </c>
     </row>
     <row r="725" spans="1:20">
@@ -45630,7 +45630,7 @@
         <v>1.3442968179447</v>
       </c>
       <c r="T725">
-        <v>41.36109161376953</v>
+        <v>35.7593879699707</v>
       </c>
     </row>
     <row r="726" spans="1:20">
@@ -45692,7 +45692,7 @@
         <v>1.3442968179447</v>
       </c>
       <c r="T726">
-        <v>39.67278289794922</v>
+        <v>38.49665069580078</v>
       </c>
     </row>
     <row r="727" spans="1:20">
@@ -45754,7 +45754,7 @@
         <v>1.3442968179447</v>
       </c>
       <c r="T727">
-        <v>39.442138671875</v>
+        <v>35.86283493041992</v>
       </c>
     </row>
     <row r="728" spans="1:20">
@@ -45816,7 +45816,7 @@
         <v>1.3442968179447</v>
       </c>
       <c r="T728">
-        <v>40.06301116943359</v>
+        <v>39.31178665161133</v>
       </c>
     </row>
     <row r="729" spans="1:20">
@@ -45878,7 +45878,7 @@
         <v>1.3442968179447</v>
       </c>
       <c r="T729">
-        <v>37.02631378173828</v>
+        <v>33.26117706298828</v>
       </c>
     </row>
     <row r="730" spans="1:20">
@@ -45940,7 +45940,7 @@
         <v>1.3442968179447</v>
       </c>
       <c r="T730">
-        <v>37.91765213012695</v>
+        <v>33.75471878051758</v>
       </c>
     </row>
     <row r="731" spans="1:20">
@@ -46002,7 +46002,7 @@
         <v>1.3442968179447</v>
       </c>
       <c r="T731">
-        <v>39.80497741699219</v>
+        <v>36.60765075683594</v>
       </c>
     </row>
     <row r="732" spans="1:20">
@@ -46126,7 +46126,7 @@
         <v>1.890179421768703</v>
       </c>
       <c r="T733">
-        <v>7.254257678985596</v>
+        <v>6.967686653137207</v>
       </c>
     </row>
     <row r="734" spans="1:20">
@@ -46188,7 +46188,7 @@
         <v>1.890179421768703</v>
       </c>
       <c r="T734">
-        <v>7.495879173278809</v>
+        <v>7.479186058044434</v>
       </c>
     </row>
     <row r="735" spans="1:20">
@@ -46250,7 +46250,7 @@
         <v>1.890179421768703</v>
       </c>
       <c r="T735">
-        <v>7.407858371734619</v>
+        <v>7.001462936401367</v>
       </c>
     </row>
     <row r="736" spans="1:20">
@@ -46312,7 +46312,7 @@
         <v>1.890179421768703</v>
       </c>
       <c r="T736">
-        <v>6.947693824768066</v>
+        <v>7.206695556640625</v>
       </c>
     </row>
     <row r="737" spans="1:20">
@@ -46374,7 +46374,7 @@
         <v>1.890179421768703</v>
       </c>
       <c r="T737">
-        <v>6.338958263397217</v>
+        <v>6.936574935913086</v>
       </c>
     </row>
     <row r="738" spans="1:20">
@@ -46436,7 +46436,7 @@
         <v>1.890179421768703</v>
       </c>
       <c r="T738">
-        <v>7.428836345672607</v>
+        <v>7.339759826660156</v>
       </c>
     </row>
     <row r="739" spans="1:20">
@@ -46498,7 +46498,7 @@
         <v>1.890179421768703</v>
       </c>
       <c r="T739">
-        <v>7.358487606048584</v>
+        <v>7.263051509857178</v>
       </c>
     </row>
     <row r="740" spans="1:20">
@@ -46560,7 +46560,7 @@
         <v>1.890179421768703</v>
       </c>
       <c r="T740">
-        <v>6.426191329956055</v>
+        <v>7.267110347747803</v>
       </c>
     </row>
     <row r="741" spans="1:20">
@@ -46622,7 +46622,7 @@
         <v>1.890179421768703</v>
       </c>
       <c r="T741">
-        <v>6.363420009613037</v>
+        <v>6.988031387329102</v>
       </c>
     </row>
     <row r="742" spans="1:20">
@@ -47304,7 +47304,7 @@
         <v>1.649354653546531</v>
       </c>
       <c r="T752">
-        <v>44.34767913818359</v>
+        <v>41.77887344360352</v>
       </c>
     </row>
     <row r="753" spans="1:20">
@@ -47366,7 +47366,7 @@
         <v>1.649354653546531</v>
       </c>
       <c r="T753">
-        <v>48.48059844970703</v>
+        <v>47.16384124755859</v>
       </c>
     </row>
     <row r="754" spans="1:20">
@@ -47428,7 +47428,7 @@
         <v>1.649354653546531</v>
       </c>
       <c r="T754">
-        <v>42.53884887695312</v>
+        <v>40.96221160888672</v>
       </c>
     </row>
     <row r="755" spans="1:20">
@@ -47490,7 +47490,7 @@
         <v>1.649354653546531</v>
       </c>
       <c r="T755">
-        <v>46.9774284362793</v>
+        <v>43.58589935302734</v>
       </c>
     </row>
     <row r="756" spans="1:20">
@@ -47552,7 +47552,7 @@
         <v>1.649354653546531</v>
       </c>
       <c r="T756">
-        <v>42.23164749145508</v>
+        <v>41.0123176574707</v>
       </c>
     </row>
     <row r="757" spans="1:20">
@@ -47614,7 +47614,7 @@
         <v>1.649354653546531</v>
       </c>
       <c r="T757">
-        <v>46.21530914306641</v>
+        <v>42.28943252563477</v>
       </c>
     </row>
     <row r="758" spans="1:20">
@@ -47676,7 +47676,7 @@
         <v>1.649354653546531</v>
       </c>
       <c r="T758">
-        <v>46.05216979980469</v>
+        <v>40.36028289794922</v>
       </c>
     </row>
     <row r="759" spans="1:20">
@@ -47738,7 +47738,7 @@
         <v>1.649354653546531</v>
       </c>
       <c r="T759">
-        <v>41.06219482421875</v>
+        <v>39.88253021240234</v>
       </c>
     </row>
     <row r="760" spans="1:20">
@@ -47800,7 +47800,7 @@
         <v>1.649354653546531</v>
       </c>
       <c r="T760">
-        <v>40.61909103393555</v>
+        <v>42.16970825195312</v>
       </c>
     </row>
     <row r="761" spans="1:20">
@@ -47862,7 +47862,7 @@
         <v>1.649354653546531</v>
       </c>
       <c r="T761">
-        <v>41.13515853881836</v>
+        <v>42.19175338745117</v>
       </c>
     </row>
     <row r="762" spans="1:20">
@@ -47924,7 +47924,7 @@
         <v>1.797283255086067</v>
       </c>
       <c r="T762">
-        <v>6.443606376647949</v>
+        <v>6.943109049</v>
       </c>
     </row>
     <row r="763" spans="1:20">
@@ -47986,7 +47986,7 @@
         <v>1.797283255086067</v>
       </c>
       <c r="T763">
-        <v>6.083298206329346</v>
+        <v>6.252289295196533</v>
       </c>
     </row>
     <row r="764" spans="1:20">
@@ -48048,7 +48048,7 @@
         <v>1.797283255086067</v>
       </c>
       <c r="T764">
-        <v>6.802073955535889</v>
+        <v>6.943109049</v>
       </c>
     </row>
     <row r="765" spans="1:20">
@@ -48110,7 +48110,7 @@
         <v>1.797283255086067</v>
       </c>
       <c r="T765">
-        <v>6.475283622741699</v>
+        <v>6.733530521392822</v>
       </c>
     </row>
     <row r="766" spans="1:20">
@@ -48234,7 +48234,7 @@
         <v>1.797283255086067</v>
       </c>
       <c r="T767">
-        <v>6.716113090515137</v>
+        <v>6.943109049</v>
       </c>
     </row>
     <row r="768" spans="1:20">
@@ -48296,7 +48296,7 @@
         <v>1.797283255086067</v>
       </c>
       <c r="T768">
-        <v>6.668400764465332</v>
+        <v>6.943109049</v>
       </c>
     </row>
     <row r="769" spans="1:20">
@@ -48358,7 +48358,7 @@
         <v>1.797283255086067</v>
       </c>
       <c r="T769">
-        <v>6.775667190551758</v>
+        <v>6.943109049</v>
       </c>
     </row>
     <row r="770" spans="1:20">
@@ -48482,7 +48482,7 @@
         <v>1.797283255086067</v>
       </c>
       <c r="T771">
-        <v>6.603617668151855</v>
+        <v>6.892931938171387</v>
       </c>
     </row>
     <row r="772" spans="1:20">
@@ -48544,7 +48544,7 @@
         <v>1.954015412186375</v>
       </c>
       <c r="T772">
-        <v>8.378915786743164</v>
+        <v>8.133022308349609</v>
       </c>
     </row>
     <row r="773" spans="1:20">
@@ -48606,7 +48606,7 @@
         <v>1.954015412186375</v>
       </c>
       <c r="T773">
-        <v>7.30517053604126</v>
+        <v>7.457180976867676</v>
       </c>
     </row>
     <row r="774" spans="1:20">
@@ -48668,7 +48668,7 @@
         <v>1.954015412186375</v>
       </c>
       <c r="T774">
-        <v>8.165536880493164</v>
+        <v>7.890944957733154</v>
       </c>
     </row>
     <row r="775" spans="1:20">
@@ -48730,7 +48730,7 @@
         <v>1.954015412186375</v>
       </c>
       <c r="T775">
-        <v>7.037446975708008</v>
+        <v>7.235416889190674</v>
       </c>
     </row>
     <row r="776" spans="1:20">
@@ -48792,7 +48792,7 @@
         <v>1.954015412186375</v>
       </c>
       <c r="T776">
-        <v>8.715352058410645</v>
+        <v>7.846930027008057</v>
       </c>
     </row>
     <row r="777" spans="1:20">
@@ -48854,7 +48854,7 @@
         <v>1.954015412186375</v>
       </c>
       <c r="T777">
-        <v>7.331150054931641</v>
+        <v>7.362870693206787</v>
       </c>
     </row>
     <row r="778" spans="1:20">
@@ -48916,7 +48916,7 @@
         <v>1.954015412186375</v>
       </c>
       <c r="T778">
-        <v>6.951467990875244</v>
+        <v>6.923824787139893</v>
       </c>
     </row>
     <row r="779" spans="1:20">
@@ -48978,7 +48978,7 @@
         <v>1.954015412186375</v>
       </c>
       <c r="T779">
-        <v>8.015542984008789</v>
+        <v>7.832901477813721</v>
       </c>
     </row>
     <row r="780" spans="1:20">
@@ -49040,7 +49040,7 @@
         <v>1.954015412186375</v>
       </c>
       <c r="T780">
-        <v>7.049269676208496</v>
+        <v>6.845010757446289</v>
       </c>
     </row>
     <row r="781" spans="1:20">
@@ -49102,7 +49102,7 @@
         <v>1.954015412186375</v>
       </c>
       <c r="T781">
-        <v>7.947281360626221</v>
+        <v>7.679770946502686</v>
       </c>
     </row>
     <row r="782" spans="1:20">
@@ -49164,7 +49164,7 @@
         <v>2.609524008933552</v>
       </c>
       <c r="T782">
-        <v>18.82863998413086</v>
+        <v>18.44537925720215</v>
       </c>
     </row>
     <row r="783" spans="1:20">
@@ -49226,7 +49226,7 @@
         <v>2.609524008933552</v>
       </c>
       <c r="T783">
-        <v>19.55861282348633</v>
+        <v>19.07997894287109</v>
       </c>
     </row>
     <row r="784" spans="1:20">
@@ -49288,7 +49288,7 @@
         <v>2.609524008933552</v>
       </c>
       <c r="T784">
-        <v>20.00144004821777</v>
+        <v>19.53954315185547</v>
       </c>
     </row>
     <row r="785" spans="1:20">
@@ -49412,7 +49412,7 @@
         <v>2.609524008933552</v>
       </c>
       <c r="T786">
-        <v>17.16455841064453</v>
+        <v>16.96531295776367</v>
       </c>
     </row>
     <row r="787" spans="1:20">
@@ -49474,7 +49474,7 @@
         <v>2.609524008933552</v>
       </c>
       <c r="T787">
-        <v>19.88638114929199</v>
+        <v>19.48022270202637</v>
       </c>
     </row>
     <row r="788" spans="1:20">
@@ -49536,7 +49536,7 @@
         <v>2.609524008933552</v>
       </c>
       <c r="T788">
-        <v>19.36609268188477</v>
+        <v>18.93826484680176</v>
       </c>
     </row>
     <row r="789" spans="1:20">
@@ -49598,7 +49598,7 @@
         <v>2.609524008933552</v>
       </c>
       <c r="T789">
-        <v>19.42385101318359</v>
+        <v>18.98684883117676</v>
       </c>
     </row>
     <row r="790" spans="1:20">
@@ -49660,7 +49660,7 @@
         <v>2.609524008933552</v>
       </c>
       <c r="T790">
-        <v>21.4881591796875</v>
+        <v>20.93815040588379</v>
       </c>
     </row>
     <row r="791" spans="1:20">
@@ -49722,7 +49722,7 @@
         <v>2.609524008933552</v>
       </c>
       <c r="T791">
-        <v>19.63890838623047</v>
+        <v>19.14051246643066</v>
       </c>
     </row>
     <row r="792" spans="1:20">
@@ -49784,7 +49784,7 @@
         <v>1.649771380471375</v>
       </c>
       <c r="T792">
-        <v>14.74295520782471</v>
+        <v>14.96640992</v>
       </c>
     </row>
     <row r="793" spans="1:20">
@@ -50094,7 +50094,7 @@
         <v>1.649771380471375</v>
       </c>
       <c r="T797">
-        <v>14.29080295562744</v>
+        <v>14.96640992</v>
       </c>
     </row>
     <row r="798" spans="1:20">
@@ -50342,7 +50342,7 @@
         <v>1.649771380471375</v>
       </c>
       <c r="T801">
-        <v>14.70402717590332</v>
+        <v>14.96640992</v>
       </c>
     </row>
     <row r="802" spans="1:20">
@@ -50466,7 +50466,7 @@
         <v>1.514428453676223</v>
       </c>
       <c r="T803">
-        <v>15.78303718566895</v>
+        <v>15.36514949798584</v>
       </c>
     </row>
     <row r="804" spans="1:20">
@@ -50590,7 +50590,7 @@
         <v>1.514428453676223</v>
       </c>
       <c r="T805">
-        <v>14.16046142578125</v>
+        <v>13.45340919494629</v>
       </c>
     </row>
     <row r="806" spans="1:20">
@@ -50714,7 +50714,7 @@
         <v>1.514428453676223</v>
       </c>
       <c r="T807">
-        <v>15.94017601013184</v>
+        <v>15.43071746826172</v>
       </c>
     </row>
     <row r="808" spans="1:20">
@@ -50838,7 +50838,7 @@
         <v>1.514428453676223</v>
       </c>
       <c r="T809">
-        <v>15.27376651763916</v>
+        <v>14.47062873840332</v>
       </c>
     </row>
     <row r="810" spans="1:20">
@@ -50900,7 +50900,7 @@
         <v>1.514428453676223</v>
       </c>
       <c r="T810">
-        <v>15.39820766448975</v>
+        <v>14.7153844833374</v>
       </c>
     </row>
     <row r="811" spans="1:20">
@@ -50962,7 +50962,7 @@
         <v>1.514428453676223</v>
       </c>
       <c r="T811">
-        <v>15.70624446868896</v>
+        <v>14.91783905029297</v>
       </c>
     </row>
     <row r="812" spans="1:20">
